--- a/MockInterview_9thMay.xlsx
+++ b/MockInterview_9thMay.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="314">
   <si>
     <t>Madan Raj</t>
   </si>
@@ -802,7 +802,172 @@
     <t>SWAMINATHAN VK</t>
   </si>
   <si>
-    <t>Communication was okay. The learner was unable to solve the coding question but was good with theoretical concepts. They were able to solve MongoDB queries; however, improvement is needed in coding skills, particularly in React and JavaScript.</t>
+    <t>Ravi Raghul P</t>
+  </si>
+  <si>
+    <t>Communication was okay. The learner was unable to solve the coding question but was good with theoretical concepts. He was able to solve MongoDB queries; however, improvement is needed in coding skills, particularly in React and JavaScript.</t>
+  </si>
+  <si>
+    <t>Communication was okay. The learner was unable to solve the coding question but was good with theoretical concepts. He  was able to solve MongoDB queries; however, improvement is needed in coding skills, particularly in React and JavaScript.</t>
+  </si>
+  <si>
+    <t>Communication needs to improved, learner was able to approach for the JS coding Question but struggled significantly with the theory and the React Coding, showing a very weak understanding and inability to answer properly</t>
+  </si>
+  <si>
+    <t>Kathirvel R</t>
+  </si>
+  <si>
+    <t>Jawahar</t>
+  </si>
+  <si>
+    <t>S.Rahamathu nissa</t>
+  </si>
+  <si>
+    <t>Communication needs to improved, learner was able to approach for the coding Question but struggled in Javascript,significantly with the theory part of React &amp; Node, Needs work upon theory and coding part. Did well in HTML, CSS,JS in theory.</t>
+  </si>
+  <si>
+    <t>Communication needs to improved, learner was able to approach for the coding Question and 2 questions out of 3, thoery also good but React coding needs to put more emphasis, as he performed above average so good to go.</t>
+  </si>
+  <si>
+    <t>Jerome Franklin</t>
+  </si>
+  <si>
+    <t>Karthi J</t>
+  </si>
+  <si>
+    <t>Communication needs to improved, learner was able to approach for the coding Question and solved the React Question and Mongo but couldn’t solve the Js Questions and theory  apart needs to improved alot, shows weak understanding in concepts</t>
+  </si>
+  <si>
+    <t>Vidya/Pramila</t>
+  </si>
+  <si>
+    <t>Theory wise Good, Coding Question able to approach but couldn’t complete , need to focus and improve in coding part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamatchi </t>
+  </si>
+  <si>
+    <t>Theory wise Good, Coding Question able to approach but couldn’t complete , need to focus and improve in coding part and lot of network issues couldn’t complete</t>
+  </si>
+  <si>
+    <t>Rathik Yasvant N</t>
+  </si>
+  <si>
+    <t>Thahira sherin</t>
+  </si>
+  <si>
+    <t>RAGHUL</t>
+  </si>
+  <si>
+    <t>Communication needs to improved, Coding Question - Good but  struggled significantly with the theory, showing a very weak understanding</t>
+  </si>
+  <si>
+    <t>Jayasridhara</t>
+  </si>
+  <si>
+    <t>Network Issues, Left the meet</t>
+  </si>
+  <si>
+    <t>Coding Question able to approach but couldn’t complete , need to focus in theroy and coding as well</t>
+  </si>
+  <si>
+    <t>Amarnath</t>
+  </si>
+  <si>
+    <t>Not ready for the mock</t>
+  </si>
+  <si>
+    <t>Dineshkumar A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding-Good , solved
+Theory - Very poor
+Need a lot of improvements in terms of Theroy </t>
+  </si>
+  <si>
+    <t>RAMKUMAR</t>
+  </si>
+  <si>
+    <t>Jaswanth</t>
+  </si>
+  <si>
+    <t>Not attneded</t>
+  </si>
+  <si>
+    <t>Shree Vardhini</t>
+  </si>
+  <si>
+    <t>Coding Question - Not solved | Communication- Not Good | Theory -Okay(Good)</t>
+  </si>
+  <si>
+    <t>Coding Question - Not solved | Communication- Good | Theory -Okay(Good)</t>
+  </si>
+  <si>
+    <t>Kaviya</t>
+  </si>
+  <si>
+    <t>Hemapathi</t>
+  </si>
+  <si>
+    <t>Coding Question - solved 1/2 | Communication- Good | Theory -Not upto the mark, need improment in both areas</t>
+  </si>
+  <si>
+    <t>Coding Question - Not solved | Communication- Okay | Theory -Not answered |Need a lot of improvements in both areas</t>
+  </si>
+  <si>
+    <t>Coding Question - solved 1/3 | Communication- Good | Theory -Okay(Good), need improment in coding , same like last mock interview scores</t>
+  </si>
+  <si>
+    <t>Coding-Good ,JS solved react not solved |Communication- Not Good|Theory - Very poor|Need a lot of improvements in terms of Theroy &amp; code,same like last mock interview scores</t>
+  </si>
+  <si>
+    <t>Coding Question - JS solved react not solved | Communication- Good | Theory -Node &amp; JS Good but Others not answered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding Question -Not solved | Communication- Good | Theory -Not Good , need improvement in both areas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arunkumar vadivel
+</t>
+  </si>
+  <si>
+    <t>Coding Question - solved 1/3 | Communication- Poor | Theory -Not Good, need improment in coding and theory as well</t>
+  </si>
+  <si>
+    <t>Coding Question - 1/3 | Communication- Okay | Theory -Not answered |Need a lot of improvements in both areas</t>
+  </si>
+  <si>
+    <t>Arivazhagan</t>
+  </si>
+  <si>
+    <t>Coding Question - solved 1/3 | Communication- Okay | Theory -Not answered |Need a lot of improvements in both areas</t>
+  </si>
+  <si>
+    <t>Selvaraj</t>
+  </si>
+  <si>
+    <t>sowmiya</t>
+  </si>
+  <si>
+    <t>Coding Question - 3/3 | Communication- Okay | Theory -Okay|Need a improvements in theory is needed but can be forwaded to next level</t>
+  </si>
+  <si>
+    <t>Coding Question - 0/3 | Communication- Okay | Theory -Answered -HTML/CSS but rest not answered |Need a lot of improvements in both areas</t>
+  </si>
+  <si>
+    <t>Coding Question - solved 1.5/3 - Given lot of time but couldn’t complete| Communication- Poor | Theory -Not Good, need improment in coding and theory as well</t>
+  </si>
+  <si>
+    <t>Vishnu</t>
+  </si>
+  <si>
+    <t>Coding Question - 1.5/3 | Communication- Okay | Theory -Not answered |Need a lot of improvements in both areas</t>
+  </si>
+  <si>
+    <t>Dhanush</t>
+  </si>
+  <si>
+    <t>Coding Question - 2.5/3 | Communication- Okay | Theory -Answered Mostly |Need a lot of improvements in theory in some areas but can be forwaded to next level</t>
   </si>
 </sst>
 </file>
@@ -1400,11 +1565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O524"/>
+  <dimension ref="A1:R708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H522" sqref="H522"/>
+      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O702" sqref="O702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21414,7 +21579,8029 @@
         <v>5</v>
       </c>
       <c r="O524" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="526" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A526" s="17">
+        <v>45930</v>
+      </c>
+      <c r="B526" s="14" t="s">
         <v>259</v>
+      </c>
+      <c r="C526" s="18"/>
+      <c r="D526" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E526" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="F526" s="19">
+        <v>1</v>
+      </c>
+      <c r="G526" s="19">
+        <v>1</v>
+      </c>
+      <c r="H526" s="19">
+        <f>0.5+0.4+0.4+0.2</f>
+        <v>1.5</v>
+      </c>
+      <c r="I526" s="19">
+        <f>0.2+0.7+0.7+0.7</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J526" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="K526" s="19">
+        <f>0.5+0.2+0</f>
+        <v>0.7</v>
+      </c>
+      <c r="L526" s="19">
+        <f>0+0.7+0.4</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M526" s="19"/>
+      <c r="N526" s="18"/>
+      <c r="O526" s="18"/>
+    </row>
+    <row r="527" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A527" s="17">
+        <v>45930</v>
+      </c>
+      <c r="B527" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C527" s="22"/>
+      <c r="D527" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E527" s="23">
+        <v>2</v>
+      </c>
+      <c r="F527" s="23">
+        <v>2</v>
+      </c>
+      <c r="G527" s="23">
+        <v>1</v>
+      </c>
+      <c r="H527" s="23">
+        <v>4</v>
+      </c>
+      <c r="I527" s="23">
+        <v>4</v>
+      </c>
+      <c r="J527" s="23">
+        <v>3</v>
+      </c>
+      <c r="K527" s="23">
+        <v>3</v>
+      </c>
+      <c r="L527" s="23">
+        <v>3</v>
+      </c>
+      <c r="M527" s="23"/>
+      <c r="N527" s="22"/>
+      <c r="O527" s="22"/>
+    </row>
+    <row r="528" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A528" s="17">
+        <v>45930</v>
+      </c>
+      <c r="B528" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C528" s="26"/>
+      <c r="D528" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E528" s="27">
+        <f>IF(E527=0, "",
+  LOOKUP(E526/E527,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F528" s="27">
+        <f>IF(F527=0, "",
+  LOOKUP(F526/F527,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G528" s="27">
+        <f>IF(G527=0, "",
+  LOOKUP(G526/G527,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H528" s="27">
+        <f>IF(H527=0, "",
+  LOOKUP(H526/H527,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I528" s="27">
+        <f>IF(I527=0, "",
+  LOOKUP(I526/I527,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J528" s="27">
+        <f>IF(J527=0, "",
+  LOOKUP(J526/J527,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="K528" s="27">
+        <f>IF(K527=0, "",
+  LOOKUP(K526/K527,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="L528" s="27">
+        <f>IF(L527=0, "",
+  LOOKUP(L526/L527,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M528" s="27"/>
+      <c r="N528" s="27">
+        <f>AVERAGE(E528:L528)</f>
+        <v>4.75</v>
+      </c>
+      <c r="O528" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A530" s="15">
+        <v>45645</v>
+      </c>
+      <c r="B530" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C530" s="18"/>
+      <c r="D530" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E530" s="19">
+        <v>0</v>
+      </c>
+      <c r="F530" s="19">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G530" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="H530" s="19">
+        <f>0.2+0.4+0.3+0.4</f>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="I530" s="19">
+        <f>0.5+0.2+0.5+0.7</f>
+        <v>1.9</v>
+      </c>
+      <c r="J530" s="19">
+        <f>0.2+0.3+0.2</f>
+        <v>0.7</v>
+      </c>
+      <c r="K530" s="19">
+        <f>0.2+0+0+0.3</f>
+        <v>0.5</v>
+      </c>
+      <c r="L530" s="19">
+        <f>0+0.2+0+0.3</f>
+        <v>0.5</v>
+      </c>
+      <c r="M530" s="19"/>
+      <c r="N530" s="18"/>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A531" s="15">
+        <v>45645</v>
+      </c>
+      <c r="B531" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C531" s="22"/>
+      <c r="D531" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E531" s="23">
+        <v>1</v>
+      </c>
+      <c r="F531" s="23">
+        <v>1</v>
+      </c>
+      <c r="G531" s="23">
+        <v>2</v>
+      </c>
+      <c r="H531" s="23">
+        <v>4</v>
+      </c>
+      <c r="I531" s="23">
+        <v>4</v>
+      </c>
+      <c r="J531" s="23">
+        <v>3</v>
+      </c>
+      <c r="K531" s="23">
+        <v>4</v>
+      </c>
+      <c r="L531" s="23">
+        <v>4</v>
+      </c>
+      <c r="M531" s="23"/>
+      <c r="N531" s="22"/>
+    </row>
+    <row r="532" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A532" s="15">
+        <v>45645</v>
+      </c>
+      <c r="B532" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C532" s="26"/>
+      <c r="D532" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E532" s="27">
+        <f>IF((E530/E531*5)=0,1,IF((E530/E531*5)&lt;=1,1,IF((E530/E531*5)&gt;=3,3,IF((E530/E531*5)=5,3,E530/E531*5))))</f>
+        <v>1</v>
+      </c>
+      <c r="F532" s="27">
+        <f>IF((F530/F531*5)=0,1,IF((F530/F531*5)&lt;=1,1,IF((F530/F531*5)&gt;=3,3,IF((F530/F531*5)=5,3,F530/F531*5))))</f>
+        <v>1</v>
+      </c>
+      <c r="G532" s="27">
+        <f>IF((G530/G531*5)=0,1,IF((G530/G531*5)&lt;=1,1,IF((G530/G531*5)&gt;=3,3,IF((G530/G531*5)=5,3,G530/G531*5))))</f>
+        <v>1</v>
+      </c>
+      <c r="H532" s="27">
+        <f>IF((H530/H531*5)=0,1,IF((H530/H531*5)&lt;=1,1,IF((H530/H531*5)&gt;=3,3,IF((H530/H531*5)=5,3,H530/H531*5))))</f>
+        <v>1.6250000000000004</v>
+      </c>
+      <c r="I532" s="27">
+        <f>IF((I530/I531*5)=0,1,IF((I530/I531*5)&lt;=1,1,IF((I530/I531*5)&gt;=3,3,IF((I530/I531*5)=5,3,I530/I531*5))))</f>
+        <v>2.375</v>
+      </c>
+      <c r="J532" s="27">
+        <f t="shared" ref="J532:L532" si="95">IF((J530/J531*5)=0,1,IF((J530/J531*5)&lt;=1,1,IF((J530/J531*5)&gt;=3,3,IF((J530/J531*5)=5,3,J530/J531*5))))</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="K532" s="27">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="L532" s="27">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="M532" s="27"/>
+      <c r="N532" s="27">
+        <f>AVERAGE(J532:L532)</f>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="O532" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="534" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A534" s="17">
+        <v>45943</v>
+      </c>
+      <c r="B534" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C534" s="18"/>
+      <c r="D534" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E534" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="F534" s="19">
+        <v>1</v>
+      </c>
+      <c r="G534" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H534" s="19">
+        <f>0.7+0.7+0.4+0.4</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="I534" s="19">
+        <f>0.6+0.5+0.5+0.7</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J534" s="19">
+        <f>0.6+0.6+0.5</f>
+        <v>1.7</v>
+      </c>
+      <c r="K534" s="19">
+        <f>0.5+0.6+0</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L534" s="19">
+        <f>0+0.6+0.3</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="M534" s="19"/>
+      <c r="N534" s="18"/>
+      <c r="O534" s="18"/>
+    </row>
+    <row r="535" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A535" s="17">
+        <v>45943</v>
+      </c>
+      <c r="B535" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C535" s="22"/>
+      <c r="D535" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E535" s="23">
+        <v>2</v>
+      </c>
+      <c r="F535" s="23">
+        <v>2</v>
+      </c>
+      <c r="G535" s="23">
+        <v>1</v>
+      </c>
+      <c r="H535" s="23">
+        <v>4</v>
+      </c>
+      <c r="I535" s="23">
+        <v>4</v>
+      </c>
+      <c r="J535" s="23">
+        <v>3</v>
+      </c>
+      <c r="K535" s="23">
+        <v>3</v>
+      </c>
+      <c r="L535" s="23">
+        <v>3</v>
+      </c>
+      <c r="M535" s="23"/>
+      <c r="N535" s="22"/>
+      <c r="O535" s="22"/>
+    </row>
+    <row r="536" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A536" s="17">
+        <v>45943</v>
+      </c>
+      <c r="B536" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C536" s="26"/>
+      <c r="D536" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E536" s="27">
+        <f>IF(E535=0, "",
+  LOOKUP(E534/E535,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F536" s="27">
+        <f>IF(F535=0, "",
+  LOOKUP(F534/F535,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G536" s="27">
+        <f>IF(G535=0, "",
+  LOOKUP(G534/G535,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H536" s="27">
+        <f>IF(H535=0, "",
+  LOOKUP(H534/H535,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I536" s="27">
+        <f>IF(I535=0, "",
+  LOOKUP(I534/I535,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J536" s="27">
+        <f>IF(J535=0, "",
+  LOOKUP(J534/J535,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K536" s="27">
+        <f>IF(K535=0, "",
+  LOOKUP(K534/K535,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="L536" s="27">
+        <f>IF(L535=0, "",
+  LOOKUP(L534/L535,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M536" s="27"/>
+      <c r="N536" s="27">
+        <f>AVERAGE(E536:L536)</f>
+        <v>4.875</v>
+      </c>
+      <c r="O536" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="538" spans="1:15" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A538" s="17">
+        <v>45944</v>
+      </c>
+      <c r="B538" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D538" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E538" s="32">
+        <f>0.4+0</f>
+        <v>0.4</v>
+      </c>
+      <c r="F538" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G538" s="14"/>
+      <c r="H538" s="19">
+        <f>0+0.5+0+0</f>
+        <v>0.5</v>
+      </c>
+      <c r="I538" s="19">
+        <f>0+0+0.5+0.3</f>
+        <v>0.8</v>
+      </c>
+      <c r="J538" s="19">
+        <f>0.5+0.5+0.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="K538" s="19">
+        <f>0.5+0.3+0</f>
+        <v>0.8</v>
+      </c>
+      <c r="L538" s="19">
+        <f>0.4+0.3+0.3</f>
+        <v>1</v>
+      </c>
+      <c r="M538" s="19"/>
+    </row>
+    <row r="539" spans="1:15" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A539" s="17">
+        <v>45944</v>
+      </c>
+      <c r="B539" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D539" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E539" s="23">
+        <v>2</v>
+      </c>
+      <c r="F539" s="23">
+        <v>2</v>
+      </c>
+      <c r="G539" s="23">
+        <v>1</v>
+      </c>
+      <c r="H539" s="23">
+        <v>4</v>
+      </c>
+      <c r="I539" s="23">
+        <v>4</v>
+      </c>
+      <c r="J539" s="23">
+        <v>3</v>
+      </c>
+      <c r="K539" s="23">
+        <v>3</v>
+      </c>
+      <c r="L539" s="23">
+        <v>3</v>
+      </c>
+      <c r="M539" s="23"/>
+    </row>
+    <row r="540" spans="1:15" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A540" s="17">
+        <v>45944</v>
+      </c>
+      <c r="B540" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D540" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E540" s="27">
+        <f>IF(E539=0, "",
+  LOOKUP(E538/E539,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F540" s="27">
+        <f>IF(F539=0, "",
+  LOOKUP(F538/F539,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="G540" s="27">
+        <f>IF(G539=0, "",
+  LOOKUP(G538/G539,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H540" s="27">
+        <f>IF(H539=0, "",
+  LOOKUP(H538/H539,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I540" s="27">
+        <f>IF(I539=0, "",
+  LOOKUP(I538/I539,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J540" s="27">
+        <f>IF(J539=0, "",
+  LOOKUP(J538/J539,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="K540" s="27">
+        <f>IF(K539=0, "",
+  LOOKUP(K538/K539,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="L540" s="27">
+        <f>IF(L539=0, "",
+  LOOKUP(L538/L539,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M540" s="27"/>
+      <c r="N540" s="27">
+        <f>AVERAGE(E540:L540)</f>
+        <v>1.875</v>
+      </c>
+      <c r="O540" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="542" spans="1:15" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A542" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B542" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D542" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E542" s="32">
+        <f>0.2+0.4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F542" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="G542" s="32">
+        <v>1</v>
+      </c>
+      <c r="H542" s="32">
+        <f>0.5+1+0.8+0.7</f>
+        <v>3</v>
+      </c>
+      <c r="I542" s="32">
+        <f>0.4+0.4+0.7+0.5</f>
+        <v>2</v>
+      </c>
+      <c r="J542" s="32">
+        <f>1+0.7+0.8</f>
+        <v>2.5</v>
+      </c>
+      <c r="K542" s="32">
+        <f>0+0.6+0.5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L542" s="32">
+        <f>0.5+0.4+0</f>
+        <v>0.9</v>
+      </c>
+      <c r="M542" s="32"/>
+    </row>
+    <row r="543" spans="1:15" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A543" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B543" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D543" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E543" s="39">
+        <v>2</v>
+      </c>
+      <c r="F543" s="39">
+        <v>2</v>
+      </c>
+      <c r="G543" s="39">
+        <v>1</v>
+      </c>
+      <c r="H543" s="39">
+        <v>4</v>
+      </c>
+      <c r="I543" s="39">
+        <v>4</v>
+      </c>
+      <c r="J543" s="39">
+        <v>3</v>
+      </c>
+      <c r="K543" s="39">
+        <v>3</v>
+      </c>
+      <c r="L543" s="39">
+        <v>3</v>
+      </c>
+      <c r="M543" s="39"/>
+    </row>
+    <row r="544" spans="1:15" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A544" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B544" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D544" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E544" s="41">
+        <f>IF(E543=0, "",
+  LOOKUP(E542/E543,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="F544" s="41">
+        <f>IF(F543=0, "",
+  LOOKUP(F542/F543,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="G544" s="41">
+        <f>IF(G543=0, "",
+  LOOKUP(G542/G543,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H544" s="41">
+        <f>IF(H543=0, "",
+  LOOKUP(H542/H543,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I544" s="41">
+        <f>IF(I543=0, "",
+  LOOKUP(I542/I543,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J544" s="41">
+        <f>IF(J543=0, "",
+  LOOKUP(J542/J543,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="K544" s="41">
+        <f>IF(K543=0, "",
+  LOOKUP(K542/K543,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="L544" s="41">
+        <f>IF(L543=0, "",
+  LOOKUP(L542/L543,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M544" s="41"/>
+      <c r="N544" s="41">
+        <f>AVERAGE(E544:L544)</f>
+        <v>5.5</v>
+      </c>
+      <c r="O544" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="546" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A546" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B546" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C546" s="30"/>
+      <c r="D546" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E546" s="32">
+        <f>0.2+0.4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F546" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="G546" s="32">
+        <v>1</v>
+      </c>
+      <c r="H546" s="32">
+        <f>0.7+0.8+0+0.4</f>
+        <v>1.9</v>
+      </c>
+      <c r="I546" s="32">
+        <f>0.4+0.4+0.7+0</f>
+        <v>1.5</v>
+      </c>
+      <c r="J546" s="32">
+        <f>1+0.7+0.5</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K546" s="32">
+        <f>0+0.6+0.5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L546" s="32">
+        <f>0.5+0.4+0</f>
+        <v>0.9</v>
+      </c>
+      <c r="M546" s="32"/>
+      <c r="N546" s="30"/>
+      <c r="O546" s="30"/>
+    </row>
+    <row r="547" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A547" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B547" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C547" s="38"/>
+      <c r="D547" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E547" s="39">
+        <v>2</v>
+      </c>
+      <c r="F547" s="39">
+        <v>2</v>
+      </c>
+      <c r="G547" s="39">
+        <v>1</v>
+      </c>
+      <c r="H547" s="39">
+        <v>4</v>
+      </c>
+      <c r="I547" s="39">
+        <v>4</v>
+      </c>
+      <c r="J547" s="39">
+        <v>3</v>
+      </c>
+      <c r="K547" s="39">
+        <v>3</v>
+      </c>
+      <c r="L547" s="39">
+        <v>3</v>
+      </c>
+      <c r="M547" s="39"/>
+      <c r="N547" s="38"/>
+      <c r="O547" s="38"/>
+    </row>
+    <row r="548" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A548" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B548" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C548" s="40"/>
+      <c r="D548" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E548" s="41">
+        <f>IF(E547=0, "",
+  LOOKUP(E546/E547,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="F548" s="41">
+        <f>IF(F547=0, "",
+  LOOKUP(F546/F547,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="G548" s="41">
+        <f>IF(G547=0, "",
+  LOOKUP(G546/G547,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H548" s="41">
+        <f>IF(H547=0, "",
+  LOOKUP(H546/H547,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I548" s="41">
+        <f>IF(I547=0, "",
+  LOOKUP(I546/I547,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J548" s="41">
+        <f>IF(J547=0, "",
+  LOOKUP(J546/J547,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K548" s="41">
+        <f>IF(K547=0, "",
+  LOOKUP(K546/K547,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="L548" s="41">
+        <f>IF(L547=0, "",
+  LOOKUP(L546/L547,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M548" s="41"/>
+      <c r="N548" s="41">
+        <f>AVERAGE(E548:L548)</f>
+        <v>5.125</v>
+      </c>
+      <c r="O548" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="550" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A550" s="31">
+        <v>45953</v>
+      </c>
+      <c r="B550" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C550" s="30"/>
+      <c r="D550" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E550" s="32">
+        <f>0.2+0.4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F550" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="G550" s="32">
+        <v>1</v>
+      </c>
+      <c r="H550" s="32">
+        <f>0.7+0.8+0+0.4</f>
+        <v>1.9</v>
+      </c>
+      <c r="I550" s="32">
+        <f>0.4+0.4+0.7+0</f>
+        <v>1.5</v>
+      </c>
+      <c r="J550" s="32">
+        <f>1+0.7+0.5</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K550" s="32">
+        <f>0+0.6+0.5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L550" s="32">
+        <f>0.5+0.4+0</f>
+        <v>0.9</v>
+      </c>
+      <c r="M550" s="32"/>
+      <c r="N550" s="30"/>
+      <c r="O550" s="30"/>
+    </row>
+    <row r="551" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A551" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B551" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C551" s="38"/>
+      <c r="D551" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E551" s="39">
+        <v>2</v>
+      </c>
+      <c r="F551" s="39">
+        <v>2</v>
+      </c>
+      <c r="G551" s="39">
+        <v>1</v>
+      </c>
+      <c r="H551" s="39">
+        <v>4</v>
+      </c>
+      <c r="I551" s="39">
+        <v>4</v>
+      </c>
+      <c r="J551" s="39">
+        <v>3</v>
+      </c>
+      <c r="K551" s="39">
+        <v>3</v>
+      </c>
+      <c r="L551" s="39">
+        <v>3</v>
+      </c>
+      <c r="M551" s="39"/>
+      <c r="N551" s="38"/>
+      <c r="O551" s="38"/>
+    </row>
+    <row r="552" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A552" s="31">
+        <v>45947</v>
+      </c>
+      <c r="B552" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C552" s="40"/>
+      <c r="D552" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E552" s="41">
+        <f>IF(E551=0, "",
+  LOOKUP(E550/E551,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="F552" s="41">
+        <f>IF(F551=0, "",
+  LOOKUP(F550/F551,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="G552" s="41">
+        <f>IF(G551=0, "",
+  LOOKUP(G550/G551,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H552" s="41">
+        <f>IF(H551=0, "",
+  LOOKUP(H550/H551,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I552" s="41">
+        <f>IF(I551=0, "",
+  LOOKUP(I550/I551,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J552" s="41">
+        <f>IF(J551=0, "",
+  LOOKUP(J550/J551,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K552" s="41">
+        <f>IF(K551=0, "",
+  LOOKUP(K550/K551,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="L552" s="41">
+        <f>IF(L551=0, "",
+  LOOKUP(L550/L551,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M552" s="41"/>
+      <c r="N552" s="41">
+        <f>AVERAGE(E552:L552)</f>
+        <v>5.125</v>
+      </c>
+      <c r="O552" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="554" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A554" s="17">
+        <v>45931</v>
+      </c>
+      <c r="B554" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C554" s="18"/>
+      <c r="D554" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E554" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="F554" s="19">
+        <v>1</v>
+      </c>
+      <c r="G554" s="19">
+        <v>1</v>
+      </c>
+      <c r="H554" s="19">
+        <f>0.2+0.4+0.4+0.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="I554" s="19">
+        <f>0.2+0.7+0.7+0.7</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J554" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="K554" s="19">
+        <f>0.5+0.2+0</f>
+        <v>0.7</v>
+      </c>
+      <c r="L554" s="19">
+        <f>0+0.7+0.4</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M554" s="19"/>
+      <c r="N554" s="18"/>
+      <c r="O554" s="18"/>
+    </row>
+    <row r="555" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A555" s="17">
+        <v>45931</v>
+      </c>
+      <c r="B555" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C555" s="22"/>
+      <c r="D555" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E555" s="23">
+        <v>2</v>
+      </c>
+      <c r="F555" s="23">
+        <v>2</v>
+      </c>
+      <c r="G555" s="23">
+        <v>1</v>
+      </c>
+      <c r="H555" s="23">
+        <v>4</v>
+      </c>
+      <c r="I555" s="23">
+        <v>4</v>
+      </c>
+      <c r="J555" s="23">
+        <v>3</v>
+      </c>
+      <c r="K555" s="23">
+        <v>3</v>
+      </c>
+      <c r="L555" s="23">
+        <v>3</v>
+      </c>
+      <c r="M555" s="23"/>
+      <c r="N555" s="22"/>
+      <c r="O555" s="22"/>
+    </row>
+    <row r="556" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A556" s="17">
+        <v>45931</v>
+      </c>
+      <c r="B556" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C556" s="26"/>
+      <c r="D556" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E556" s="27">
+        <f>IF(E555=0, "",
+  LOOKUP(E554/E555,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F556" s="27">
+        <f>IF(F555=0, "",
+  LOOKUP(F554/F555,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G556" s="27">
+        <f>IF(G555=0, "",
+  LOOKUP(G554/G555,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H556" s="27">
+        <f>IF(H555=0, "",
+  LOOKUP(H554/H555,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="I556" s="27">
+        <f>IF(I555=0, "",
+  LOOKUP(I554/I555,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J556" s="27">
+        <f>IF(J555=0, "",
+  LOOKUP(J554/J555,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="K556" s="27">
+        <f>IF(K555=0, "",
+  LOOKUP(K554/K555,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="L556" s="27">
+        <f>IF(L555=0, "",
+  LOOKUP(L554/L555,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M556" s="27"/>
+      <c r="N556" s="27">
+        <f>AVERAGE(E556:L556)</f>
+        <v>4.375</v>
+      </c>
+      <c r="O556" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="558" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A558" s="17">
+        <v>45931</v>
+      </c>
+      <c r="B558" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C558" s="18"/>
+      <c r="D558" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E558" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="F558" s="19">
+        <v>1</v>
+      </c>
+      <c r="G558" s="19">
+        <v>1</v>
+      </c>
+      <c r="H558" s="19">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="I558" s="19">
+        <f>0.2+0.7+0.7+0.7</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J558" s="19">
+        <f>0.5+0.7+0.5</f>
+        <v>1.7</v>
+      </c>
+      <c r="K558" s="19">
+        <f>0.5+0.7+0</f>
+        <v>1.2</v>
+      </c>
+      <c r="L558" s="19">
+        <f>0.4+0.6+0.4</f>
+        <v>1.4</v>
+      </c>
+      <c r="M558" s="19"/>
+      <c r="N558" s="18"/>
+      <c r="O558" s="18"/>
+    </row>
+    <row r="559" spans="1:15" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A559" s="17">
+        <v>45931</v>
+      </c>
+      <c r="B559" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C559" s="18"/>
+      <c r="D559" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E559" s="19">
+        <v>2</v>
+      </c>
+      <c r="F559" s="19">
+        <v>2</v>
+      </c>
+      <c r="G559" s="19">
+        <v>1</v>
+      </c>
+      <c r="H559" s="19">
+        <v>4</v>
+      </c>
+      <c r="I559" s="19">
+        <v>4</v>
+      </c>
+      <c r="J559" s="19">
+        <v>3</v>
+      </c>
+      <c r="K559" s="19">
+        <v>3</v>
+      </c>
+      <c r="L559" s="19">
+        <v>3</v>
+      </c>
+      <c r="M559" s="19"/>
+      <c r="N559" s="18"/>
+      <c r="O559" s="18"/>
+    </row>
+    <row r="560" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A560" s="17">
+        <v>45931</v>
+      </c>
+      <c r="B560" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C560" s="18"/>
+      <c r="D560" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E560" s="19">
+        <f>IF(E559=0, "",
+  LOOKUP(E558/E559,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F560" s="19">
+        <f>IF(F559=0, "",
+  LOOKUP(F558/F559,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G560" s="19">
+        <f>IF(G559=0, "",
+  LOOKUP(G558/G559,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H560" s="19">
+        <f>IF(H559=0, "",
+  LOOKUP(H558/H559,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I560" s="19">
+        <f>IF(I559=0, "",
+  LOOKUP(I558/I559,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J560" s="19">
+        <f>IF(J559=0, "",
+  LOOKUP(J558/J559,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K560" s="19">
+        <f>IF(K559=0, "",
+  LOOKUP(K558/K559,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="L560" s="19">
+        <f>IF(L559=0, "",
+  LOOKUP(L558/L559,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M560" s="19"/>
+      <c r="N560" s="18">
+        <f>AVERAGE(E560:L560)</f>
+        <v>4.875</v>
+      </c>
+      <c r="O560" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="561" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="562" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A562" s="17">
+        <v>45828</v>
+      </c>
+      <c r="B562" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C562" s="18"/>
+      <c r="D562" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E562" s="32">
+        <f>0.2+0.6</f>
+        <v>0.8</v>
+      </c>
+      <c r="F562" s="19">
+        <v>1</v>
+      </c>
+      <c r="G562" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H562" s="19">
+        <f>0.7+0.6+0.6+0.6</f>
+        <v>2.5</v>
+      </c>
+      <c r="I562" s="19">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="J562" s="19">
+        <f>0.8+0.8+0.8</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="K562" s="19">
+        <f>0.7+0.6+0.5</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L562" s="19">
+        <f>0.5+0+0.3</f>
+        <v>0.8</v>
+      </c>
+      <c r="M562" s="19"/>
+      <c r="N562" s="18"/>
+      <c r="O562" s="18"/>
+      <c r="P562" s="18"/>
+      <c r="Q562" s="18"/>
+      <c r="R562" s="18"/>
+    </row>
+    <row r="563" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A563" s="17">
+        <v>45828</v>
+      </c>
+      <c r="B563" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C563" s="22"/>
+      <c r="D563" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E563" s="23">
+        <v>2</v>
+      </c>
+      <c r="F563" s="23">
+        <v>2</v>
+      </c>
+      <c r="G563" s="23">
+        <v>1</v>
+      </c>
+      <c r="H563" s="23">
+        <v>4</v>
+      </c>
+      <c r="I563" s="23">
+        <v>4</v>
+      </c>
+      <c r="J563" s="23">
+        <v>3</v>
+      </c>
+      <c r="K563" s="23">
+        <v>3</v>
+      </c>
+      <c r="L563" s="23">
+        <v>3</v>
+      </c>
+      <c r="M563" s="23"/>
+      <c r="N563" s="22"/>
+      <c r="O563" s="22"/>
+      <c r="P563" s="22"/>
+      <c r="Q563" s="22"/>
+      <c r="R563" s="22"/>
+    </row>
+    <row r="564" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A564" s="17">
+        <v>45828</v>
+      </c>
+      <c r="B564" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C564" s="26"/>
+      <c r="D564" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E564" s="27">
+        <f>IF(E563=0, "",
+  LOOKUP(E562/E563,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F564" s="27">
+        <f>IF(F563=0, "",
+  LOOKUP(F562/F563,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G564" s="27">
+        <f>IF(G563=0, "",
+  LOOKUP(G562/G563,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H564" s="27">
+        <f>IF(H563=0, "",
+  LOOKUP(H562/H563,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I564" s="27">
+        <f>IF(I563=0, "",
+  LOOKUP(I562/I563,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J564" s="27">
+        <f>IF(J563=0, "",
+  LOOKUP(J562/J563,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7.5</v>
+      </c>
+      <c r="K564" s="27">
+        <f>IF(K563=0, "",
+  LOOKUP(K562/K563,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L564" s="27">
+        <f>IF(L563=0, "",
+  LOOKUP(L562/L563,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M564" s="27"/>
+      <c r="N564" s="27">
+        <f>AVERAGE(E564:L564)</f>
+        <v>4.9375</v>
+      </c>
+      <c r="O564" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="P564" s="26"/>
+      <c r="Q564" s="26"/>
+      <c r="R564" s="26"/>
+    </row>
+    <row r="565" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="566" spans="1:18" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A566" s="17">
+        <v>45825</v>
+      </c>
+      <c r="B566" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D566" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E566" s="19">
+        <f>1+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="F566" s="19">
+        <v>1</v>
+      </c>
+      <c r="G566" s="19">
+        <v>2</v>
+      </c>
+      <c r="H566" s="19">
+        <f>0.8+0.6+0.7+1</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="I566" s="19">
+        <f>1+0.5+0.4+0</f>
+        <v>1.9</v>
+      </c>
+      <c r="J566" s="19">
+        <f>0.7+0.7+0.7</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="K566" s="19">
+        <f>0.6+0.6+0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L566" s="19">
+        <f>0.5+0.5+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="M566" s="19"/>
+    </row>
+    <row r="567" spans="1:18" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A567" s="17">
+        <v>45825</v>
+      </c>
+      <c r="B567" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D567" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E567" s="23">
+        <v>2</v>
+      </c>
+      <c r="F567" s="23">
+        <v>2</v>
+      </c>
+      <c r="G567" s="23">
+        <v>2</v>
+      </c>
+      <c r="H567" s="23">
+        <v>4</v>
+      </c>
+      <c r="I567" s="23">
+        <v>4</v>
+      </c>
+      <c r="J567" s="23">
+        <v>3</v>
+      </c>
+      <c r="K567" s="23">
+        <v>3</v>
+      </c>
+      <c r="L567" s="23">
+        <v>3</v>
+      </c>
+      <c r="M567" s="23"/>
+    </row>
+    <row r="568" spans="1:18" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A568" s="17">
+        <v>45825</v>
+      </c>
+      <c r="B568" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D568" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E568" s="27">
+        <f>IF(E567=0, "",
+  LOOKUP(E566/E567,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F568" s="27">
+        <f>IF(F567=0, "",
+  LOOKUP(F566/F567,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G568" s="27">
+        <f>IF(G567=0, "",
+  LOOKUP(G566/G567,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H568" s="27">
+        <f>IF(H567=0, "",
+  LOOKUP(H566/H567,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I568" s="27">
+        <f>IF(I567=0, "",
+  LOOKUP(I566/I567,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J568" s="27">
+        <f>IF(J567=0, "",
+  LOOKUP(J566/J567,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K568" s="27">
+        <f>IF(K567=0, "",
+  LOOKUP(K566/K567,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L568" s="27">
+        <f>IF(L567=0, "",
+  LOOKUP(L566/L567,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M568" s="27"/>
+      <c r="N568" s="27">
+        <f>AVERAGE(E568:L568)</f>
+        <v>6.625</v>
+      </c>
+      <c r="O568" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="569" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="570" spans="1:18" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A570" s="17">
+        <v>45826</v>
+      </c>
+      <c r="B570" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D570" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E570" s="19">
+        <f>1+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="F570" s="19">
+        <v>1</v>
+      </c>
+      <c r="G570" s="19">
+        <v>2</v>
+      </c>
+      <c r="H570" s="19">
+        <f>0.8+0.6+0.7+1</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="I570" s="19">
+        <f>0.7+0.7+0.7+0</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="J570" s="19">
+        <f>0.7+0.7+0.7</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="K570" s="19">
+        <f>0.6+0.6+0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L570" s="19">
+        <f>0.5+0.5+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="M570" s="19"/>
+    </row>
+    <row r="571" spans="1:18" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A571" s="17">
+        <v>45826</v>
+      </c>
+      <c r="B571" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D571" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E571" s="23">
+        <v>2</v>
+      </c>
+      <c r="F571" s="23">
+        <v>2</v>
+      </c>
+      <c r="G571" s="23">
+        <v>2</v>
+      </c>
+      <c r="H571" s="23">
+        <v>4</v>
+      </c>
+      <c r="I571" s="23">
+        <v>4</v>
+      </c>
+      <c r="J571" s="23">
+        <v>3</v>
+      </c>
+      <c r="K571" s="23">
+        <v>3</v>
+      </c>
+      <c r="L571" s="23">
+        <v>3</v>
+      </c>
+      <c r="M571" s="23"/>
+    </row>
+    <row r="572" spans="1:18" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A572" s="17">
+        <v>45826</v>
+      </c>
+      <c r="B572" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D572" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E572" s="27">
+        <f>IF(E571=0, "",
+  LOOKUP(E570/E571,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F572" s="27">
+        <f>IF(F571=0, "",
+  LOOKUP(F570/F571,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G572" s="27">
+        <f>IF(G571=0, "",
+  LOOKUP(G570/G571,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H572" s="27">
+        <f>IF(H571=0, "",
+  LOOKUP(H570/H571,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I572" s="27">
+        <f>IF(I571=0, "",
+  LOOKUP(I570/I571,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J572" s="27">
+        <f>IF(J571=0, "",
+  LOOKUP(J570/J571,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K572" s="27">
+        <f>IF(K571=0, "",
+  LOOKUP(K570/K571,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L572" s="27">
+        <f>IF(L571=0, "",
+  LOOKUP(L570/L571,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M572" s="27"/>
+      <c r="N572" s="27">
+        <f>AVERAGE(E572:L572)</f>
+        <v>6.875</v>
+      </c>
+      <c r="O572" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="573" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="574" spans="1:18" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A574" s="17">
+        <v>45980</v>
+      </c>
+      <c r="B574" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D574" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E574" s="19">
+        <f>0.7+0.5</f>
+        <v>1.2</v>
+      </c>
+      <c r="F574" s="19">
+        <v>1</v>
+      </c>
+      <c r="G574" s="19">
+        <v>1</v>
+      </c>
+      <c r="H574" s="19">
+        <f>0.4+0.4+0.3+0</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I574" s="19">
+        <f>0.4+0.6+0.5+0</f>
+        <v>1.5</v>
+      </c>
+      <c r="J574" s="19">
+        <f>0.5+0+0.3</f>
+        <v>0.8</v>
+      </c>
+      <c r="K574" s="19">
+        <f>0.6+0+0</f>
+        <v>0.6</v>
+      </c>
+      <c r="L574" s="19">
+        <f>0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="M574" s="19"/>
+    </row>
+    <row r="575" spans="1:18" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A575" s="17">
+        <v>45980</v>
+      </c>
+      <c r="B575" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D575" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E575" s="23">
+        <v>2</v>
+      </c>
+      <c r="F575" s="23">
+        <v>2</v>
+      </c>
+      <c r="G575" s="23">
+        <v>2</v>
+      </c>
+      <c r="H575" s="23">
+        <v>4</v>
+      </c>
+      <c r="I575" s="23">
+        <v>4</v>
+      </c>
+      <c r="J575" s="23">
+        <v>3</v>
+      </c>
+      <c r="K575" s="23">
+        <v>3</v>
+      </c>
+      <c r="L575" s="23">
+        <v>3</v>
+      </c>
+      <c r="M575" s="23"/>
+    </row>
+    <row r="576" spans="1:18" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A576" s="17">
+        <v>45980</v>
+      </c>
+      <c r="B576" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D576" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E576" s="27">
+        <f>IF(E575=0, "",
+  LOOKUP(E574/E575,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F576" s="27">
+        <f>IF(F575=0, "",
+  LOOKUP(F574/F575,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G576" s="27">
+        <f>IF(G575=0, "",
+  LOOKUP(G574/G575,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H576" s="27">
+        <f>IF(H575=0, "",
+  LOOKUP(H574/H575,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="I576" s="27">
+        <f>IF(I575=0, "",
+  LOOKUP(I574/I575,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J576" s="27">
+        <f>IF(J575=0, "",
+  LOOKUP(J574/J575,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="K576" s="27">
+        <f>IF(K575=0, "",
+  LOOKUP(K574/K575,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L576" s="27">
+        <f>IF(L575=0, "",
+  LOOKUP(L574/L575,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M576" s="27"/>
+      <c r="N576" s="27">
+        <f>AVERAGE(E576:L576)</f>
+        <v>3.5</v>
+      </c>
+      <c r="O576" s="34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="577" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="578" spans="1:15" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A578" s="17">
+        <v>45980</v>
+      </c>
+      <c r="B578" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D578" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E578" s="19">
+        <f>0.5+0.5</f>
+        <v>1</v>
+      </c>
+      <c r="F578" s="19">
+        <v>1</v>
+      </c>
+      <c r="G578" s="19">
+        <v>0</v>
+      </c>
+      <c r="H578" s="19">
+        <f>0.7+0.4+0.5+0.6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I578" s="19">
+        <f>0.4+0.6+0.5+0.6</f>
+        <v>2.1</v>
+      </c>
+      <c r="J578" s="19">
+        <f>0.6+0.7+0.6</f>
+        <v>1.9</v>
+      </c>
+      <c r="K578" s="19">
+        <f>0.6+0.6+0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L578" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="M578" s="19"/>
+    </row>
+    <row r="579" spans="1:15" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A579" s="17">
+        <v>45980</v>
+      </c>
+      <c r="B579" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D579" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E579" s="23">
+        <v>2</v>
+      </c>
+      <c r="F579" s="23">
+        <v>2</v>
+      </c>
+      <c r="G579" s="23">
+        <v>2</v>
+      </c>
+      <c r="H579" s="23">
+        <v>4</v>
+      </c>
+      <c r="I579" s="23">
+        <v>4</v>
+      </c>
+      <c r="J579" s="23">
+        <v>3</v>
+      </c>
+      <c r="K579" s="23">
+        <v>3</v>
+      </c>
+      <c r="L579" s="23">
+        <v>3</v>
+      </c>
+      <c r="M579" s="23"/>
+    </row>
+    <row r="580" spans="1:15" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A580" s="17">
+        <v>45980</v>
+      </c>
+      <c r="B580" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D580" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E580" s="27">
+        <f>IF(E579=0, "",
+  LOOKUP(E578/E579,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F580" s="27">
+        <f>IF(F579=0, "",
+  LOOKUP(F578/F579,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G580" s="27">
+        <f>IF(G579=0, "",
+  LOOKUP(G578/G579,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H580" s="27">
+        <f>IF(H579=0, "",
+  LOOKUP(H578/H579,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I580" s="27">
+        <f>IF(I579=0, "",
+  LOOKUP(I578/I579,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J580" s="27">
+        <f>IF(J579=0, "",
+  LOOKUP(J578/J579,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K580" s="27">
+        <f>IF(K579=0, "",
+  LOOKUP(K578/K579,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L580" s="27">
+        <f>IF(L579=0, "",
+  LOOKUP(L578/L579,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M580" s="27"/>
+      <c r="N580" s="27">
+        <f>AVERAGE(E580:L580)</f>
+        <v>5.5</v>
+      </c>
+      <c r="O580" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="582" spans="1:15" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A582" s="17">
+        <v>45981</v>
+      </c>
+      <c r="B582" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D582" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E582" s="19">
+        <f>0.5+0</f>
+        <v>0.5</v>
+      </c>
+      <c r="F582" s="19">
+        <v>1</v>
+      </c>
+      <c r="G582" s="19">
+        <v>0</v>
+      </c>
+      <c r="H582" s="19">
+        <f>0.7+0.7+0.6+0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="I582" s="19">
+        <f>0.5+0.7+0.5+0.5</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J582" s="19">
+        <f>0.6+0.5+0.7</f>
+        <v>1.8</v>
+      </c>
+      <c r="K582" s="19">
+        <f>0.7+0.7+0.6</f>
+        <v>2</v>
+      </c>
+      <c r="L582" s="19">
+        <f>0.3+0.7+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="M582" s="19"/>
+    </row>
+    <row r="583" spans="1:15" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A583" s="17">
+        <v>45981</v>
+      </c>
+      <c r="B583" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D583" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E583" s="23">
+        <v>2</v>
+      </c>
+      <c r="F583" s="23">
+        <v>2</v>
+      </c>
+      <c r="G583" s="23">
+        <v>2</v>
+      </c>
+      <c r="H583" s="23">
+        <v>4</v>
+      </c>
+      <c r="I583" s="23">
+        <v>4</v>
+      </c>
+      <c r="J583" s="23">
+        <v>3</v>
+      </c>
+      <c r="K583" s="23">
+        <v>3</v>
+      </c>
+      <c r="L583" s="23">
+        <v>3</v>
+      </c>
+      <c r="M583" s="23"/>
+    </row>
+    <row r="584" spans="1:15" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A584" s="17">
+        <v>45981</v>
+      </c>
+      <c r="B584" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D584" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E584" s="27">
+        <f>IF(E583=0, "",
+  LOOKUP(E582/E583,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="F584" s="27">
+        <f>IF(F583=0, "",
+  LOOKUP(F582/F583,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G584" s="27">
+        <f>IF(G583=0, "",
+  LOOKUP(G582/G583,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H584" s="27">
+        <f>IF(H583=0, "",
+  LOOKUP(H582/H583,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I584" s="27">
+        <f>IF(I583=0, "",
+  LOOKUP(I582/I583,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J584" s="27">
+        <f>IF(J583=0, "",
+  LOOKUP(J582/J583,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K584" s="27">
+        <f>IF(K583=0, "",
+  LOOKUP(K582/K583,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L584" s="27">
+        <f>IF(L583=0, "",
+  LOOKUP(L582/L583,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M584" s="27"/>
+      <c r="N584" s="27">
+        <f>AVERAGE(E584:L584)</f>
+        <v>5.375</v>
+      </c>
+      <c r="O584" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="586" spans="1:15" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A586" s="17">
+        <v>45986</v>
+      </c>
+      <c r="B586" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D586" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E586" s="19">
+        <f>0.5+0</f>
+        <v>0.5</v>
+      </c>
+      <c r="F586" s="19">
+        <v>1</v>
+      </c>
+      <c r="G586" s="19">
+        <v>0</v>
+      </c>
+      <c r="H586" s="19">
+        <f>0.7+0.3+0.6+0.5</f>
+        <v>2.1</v>
+      </c>
+      <c r="I586" s="19">
+        <f>0.7+0.7+0.5+0.2</f>
+        <v>2.1</v>
+      </c>
+      <c r="J586" s="19">
+        <f>0.6+0.5+0.7</f>
+        <v>1.8</v>
+      </c>
+      <c r="K586" s="19">
+        <f>0.7+0.7+0.4</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L586" s="19">
+        <f>0.3+0.7+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="M586" s="19"/>
+    </row>
+    <row r="587" spans="1:15" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A587" s="17">
+        <v>45986</v>
+      </c>
+      <c r="B587" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D587" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E587" s="23">
+        <v>2</v>
+      </c>
+      <c r="F587" s="23">
+        <v>2</v>
+      </c>
+      <c r="G587" s="23">
+        <v>2</v>
+      </c>
+      <c r="H587" s="23">
+        <v>4</v>
+      </c>
+      <c r="I587" s="23">
+        <v>4</v>
+      </c>
+      <c r="J587" s="23">
+        <v>3</v>
+      </c>
+      <c r="K587" s="23">
+        <v>3</v>
+      </c>
+      <c r="L587" s="23">
+        <v>3</v>
+      </c>
+      <c r="M587" s="23"/>
+    </row>
+    <row r="588" spans="1:15" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A588" s="17">
+        <v>45986</v>
+      </c>
+      <c r="B588" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D588" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E588" s="27">
+        <f>IF(E587=0, "",
+  LOOKUP(E586/E587,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="F588" s="27">
+        <f>IF(F587=0, "",
+  LOOKUP(F586/F587,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G588" s="27">
+        <f>IF(G587=0, "",
+  LOOKUP(G586/G587,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H588" s="27">
+        <f>IF(H587=0, "",
+  LOOKUP(H586/H587,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I588" s="27">
+        <f>IF(I587=0, "",
+  LOOKUP(I586/I587,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J588" s="27">
+        <f>IF(J587=0, "",
+  LOOKUP(J586/J587,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K588" s="27">
+        <f>IF(K587=0, "",
+  LOOKUP(K586/K587,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L588" s="27">
+        <f>IF(L587=0, "",
+  LOOKUP(L586/L587,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M588" s="27"/>
+      <c r="N588" s="27">
+        <f>AVERAGE(E588:L588)</f>
+        <v>5.375</v>
+      </c>
+      <c r="O588" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="589" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="590" spans="1:15" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A590" s="17">
+        <v>45986</v>
+      </c>
+      <c r="B590" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D590" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E590" s="19">
+        <f>0.5+0</f>
+        <v>0.5</v>
+      </c>
+      <c r="F590" s="19">
+        <v>1</v>
+      </c>
+      <c r="G590" s="19">
+        <v>0</v>
+      </c>
+      <c r="H590" s="19">
+        <f>0+0+0+0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="I590" s="19">
+        <f>0.4+0.2+0+0</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J590" s="19">
+        <f>0.6+0+0</f>
+        <v>0.6</v>
+      </c>
+      <c r="K590" s="19">
+        <f>0+0.2+0.5</f>
+        <v>0.7</v>
+      </c>
+      <c r="L590" s="19">
+        <f>0+0.5+0.4</f>
+        <v>0.9</v>
+      </c>
+      <c r="M590" s="19"/>
+    </row>
+    <row r="591" spans="1:15" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A591" s="17">
+        <v>45986</v>
+      </c>
+      <c r="B591" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D591" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E591" s="23">
+        <v>2</v>
+      </c>
+      <c r="F591" s="23">
+        <v>2</v>
+      </c>
+      <c r="G591" s="23">
+        <v>2</v>
+      </c>
+      <c r="H591" s="23">
+        <v>4</v>
+      </c>
+      <c r="I591" s="23">
+        <v>4</v>
+      </c>
+      <c r="J591" s="23">
+        <v>3</v>
+      </c>
+      <c r="K591" s="23">
+        <v>3</v>
+      </c>
+      <c r="L591" s="23">
+        <v>3</v>
+      </c>
+      <c r="M591" s="23"/>
+    </row>
+    <row r="592" spans="1:15" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A592" s="17">
+        <v>45986</v>
+      </c>
+      <c r="B592" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D592" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E592" s="27">
+        <f>IF(E591=0, "",
+  LOOKUP(E590/E591,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="F592" s="27">
+        <f>IF(F591=0, "",
+  LOOKUP(F590/F591,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G592" s="27">
+        <f>IF(G591=0, "",
+  LOOKUP(G590/G591,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H592" s="27">
+        <f>IF(H591=0, "",
+  LOOKUP(H590/H591,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I592" s="27">
+        <f>IF(I591=0, "",
+  LOOKUP(I590/I591,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J592" s="27">
+        <f>IF(J591=0, "",
+  LOOKUP(J590/J591,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="K592" s="27">
+        <f>IF(K591=0, "",
+  LOOKUP(K590/K591,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="L592" s="27">
+        <f>IF(L591=0, "",
+  LOOKUP(L590/L591,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M592" s="27"/>
+      <c r="N592" s="27">
+        <f>AVERAGE(E592:L592)</f>
+        <v>1.875</v>
+      </c>
+      <c r="O592" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="593" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="594" spans="1:15" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A594" s="17">
+        <v>45987</v>
+      </c>
+      <c r="B594" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D594" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E594" s="19">
+        <f>0.5+0</f>
+        <v>0.5</v>
+      </c>
+      <c r="F594" s="19">
+        <v>1</v>
+      </c>
+      <c r="G594" s="19">
+        <v>0</v>
+      </c>
+      <c r="H594" s="19">
+        <f>0.7+0.7+0.6+0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="I594" s="19">
+        <f>0.4+0.5+0.6+0</f>
+        <v>1.5</v>
+      </c>
+      <c r="J594" s="19">
+        <f>0.6+0.7+0.7</f>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="K594" s="19">
+        <f>0.6+0.6+0.4</f>
+        <v>1.6</v>
+      </c>
+      <c r="L594" s="19">
+        <f>0.6+0.5+0.6</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="M594" s="19"/>
+    </row>
+    <row r="595" spans="1:15" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A595" s="17">
+        <v>45987</v>
+      </c>
+      <c r="B595" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D595" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E595" s="23">
+        <v>2</v>
+      </c>
+      <c r="F595" s="23">
+        <v>2</v>
+      </c>
+      <c r="G595" s="23">
+        <v>2</v>
+      </c>
+      <c r="H595" s="23">
+        <v>4</v>
+      </c>
+      <c r="I595" s="23">
+        <v>4</v>
+      </c>
+      <c r="J595" s="23">
+        <v>3</v>
+      </c>
+      <c r="K595" s="23">
+        <v>3</v>
+      </c>
+      <c r="L595" s="23">
+        <v>3</v>
+      </c>
+      <c r="M595" s="23"/>
+    </row>
+    <row r="596" spans="1:15" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A596" s="17">
+        <v>45987</v>
+      </c>
+      <c r="B596" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D596" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E596" s="27">
+        <f>IF(E595=0, "",
+  LOOKUP(E594/E595,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="F596" s="27">
+        <f>IF(F595=0, "",
+  LOOKUP(F594/F595,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G596" s="27">
+        <f>IF(G595=0, "",
+  LOOKUP(G594/G595,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H596" s="27">
+        <f>IF(H595=0, "",
+  LOOKUP(H594/H595,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I596" s="27">
+        <f>IF(I595=0, "",
+  LOOKUP(I594/I595,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J596" s="27">
+        <f>IF(J595=0, "",
+  LOOKUP(J594/J595,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K596" s="27">
+        <f>IF(K595=0, "",
+  LOOKUP(K594/K595,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L596" s="27">
+        <f>IF(L595=0, "",
+  LOOKUP(L594/L595,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M596" s="27"/>
+      <c r="N596" s="27">
+        <f>AVERAGE(E596:L596)</f>
+        <v>5.125</v>
+      </c>
+      <c r="O596" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="597" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="598" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A598" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B598" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C598" s="18"/>
+      <c r="D598" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E598" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="F598" s="19">
+        <v>1</v>
+      </c>
+      <c r="G598" s="19">
+        <v>0</v>
+      </c>
+      <c r="H598" s="19">
+        <f>0.3+0+0.4+0.4</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I598" s="19">
+        <f>0.4+0.2+0.3+0</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="J598" s="19">
+        <f>0.6+0+0</f>
+        <v>0.6</v>
+      </c>
+      <c r="K598" s="19">
+        <f>0+0.2+0.5</f>
+        <v>0.7</v>
+      </c>
+      <c r="L598" s="19">
+        <f>0.2+0.5+0.4</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M598" s="19"/>
+      <c r="N598" s="18"/>
+      <c r="O598" s="18"/>
+    </row>
+    <row r="599" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A599" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B599" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C599" s="22"/>
+      <c r="D599" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E599" s="23">
+        <v>2</v>
+      </c>
+      <c r="F599" s="23">
+        <v>2</v>
+      </c>
+      <c r="G599" s="23">
+        <v>2</v>
+      </c>
+      <c r="H599" s="23">
+        <v>4</v>
+      </c>
+      <c r="I599" s="23">
+        <v>4</v>
+      </c>
+      <c r="J599" s="23">
+        <v>3</v>
+      </c>
+      <c r="K599" s="23">
+        <v>3</v>
+      </c>
+      <c r="L599" s="23">
+        <v>3</v>
+      </c>
+      <c r="M599" s="23"/>
+      <c r="N599" s="22"/>
+      <c r="O599" s="22"/>
+    </row>
+    <row r="600" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A600" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B600" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C600" s="26"/>
+      <c r="D600" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E600" s="27">
+        <f>IF(E599=0, "",
+  LOOKUP(E598/E599,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F600" s="27">
+        <f>IF(F599=0, "",
+  LOOKUP(F598/F599,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G600" s="27">
+        <f>IF(G599=0, "",
+  LOOKUP(G598/G599,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H600" s="27">
+        <f>IF(H599=0, "",
+  LOOKUP(H598/H599,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="I600" s="27">
+        <f>IF(I599=0, "",
+  LOOKUP(I598/I599,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J600" s="27">
+        <f>IF(J599=0, "",
+  LOOKUP(J598/J599,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="K600" s="27">
+        <f>IF(K599=0, "",
+  LOOKUP(K598/K599,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="L600" s="27">
+        <f>IF(L599=0, "",
+  LOOKUP(L598/L599,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M600" s="27"/>
+      <c r="N600" s="27">
+        <f>AVERAGE(E600:L600)</f>
+        <v>2.375</v>
+      </c>
+      <c r="O600" s="34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="601" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="602" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A602" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B602" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C602" s="18"/>
+      <c r="D602" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E602" s="19">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="F602" s="19">
+        <v>1</v>
+      </c>
+      <c r="G602" s="19">
+        <v>1</v>
+      </c>
+      <c r="H602" s="19">
+        <f>0.5+0.5+0.3+0.4</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I602" s="19">
+        <f>0.6+0.5+0+0.4</f>
+        <v>1.5</v>
+      </c>
+      <c r="J602" s="19">
+        <f>0.7+0.5+0.5</f>
+        <v>1.7</v>
+      </c>
+      <c r="K602" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="L602" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="M602" s="19"/>
+      <c r="N602" s="18"/>
+      <c r="O602" s="18"/>
+    </row>
+    <row r="603" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A603" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B603" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C603" s="22"/>
+      <c r="D603" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E603" s="23">
+        <v>2</v>
+      </c>
+      <c r="F603" s="23">
+        <v>2</v>
+      </c>
+      <c r="G603" s="23">
+        <v>2</v>
+      </c>
+      <c r="H603" s="23">
+        <v>4</v>
+      </c>
+      <c r="I603" s="23">
+        <v>4</v>
+      </c>
+      <c r="J603" s="23">
+        <v>3</v>
+      </c>
+      <c r="K603" s="23">
+        <v>3</v>
+      </c>
+      <c r="L603" s="23">
+        <v>3</v>
+      </c>
+      <c r="M603" s="23"/>
+      <c r="N603" s="22"/>
+      <c r="O603" s="22"/>
+    </row>
+    <row r="604" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A604" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B604" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C604" s="26"/>
+      <c r="D604" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E604" s="27">
+        <f>IF(E603=0, "",
+  LOOKUP(E602/E603,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="F604" s="27">
+        <f>IF(F603=0, "",
+  LOOKUP(F602/F603,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G604" s="27">
+        <f>IF(G603=0, "",
+  LOOKUP(G602/G603,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H604" s="27">
+        <f>IF(H603=0, "",
+  LOOKUP(H602/H603,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I604" s="27">
+        <f>IF(I603=0, "",
+  LOOKUP(I602/I603,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J604" s="27">
+        <f>IF(J603=0, "",
+  LOOKUP(J602/J603,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K604" s="27">
+        <f>IF(K603=0, "",
+  LOOKUP(K602/K603,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="L604" s="27">
+        <f>IF(L603=0, "",
+  LOOKUP(L602/L603,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M604" s="27"/>
+      <c r="N604" s="27">
+        <f>AVERAGE(E604:L604)</f>
+        <v>5.625</v>
+      </c>
+      <c r="O604" s="34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="606" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A606" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B606" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C606" s="18"/>
+      <c r="D606" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E606" s="19">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="F606" s="19">
+        <v>1</v>
+      </c>
+      <c r="G606" s="19">
+        <v>1</v>
+      </c>
+      <c r="H606" s="19">
+        <f>0.5+0.5+0.3+0.4</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I606" s="19">
+        <f>0.6+0.5+0+0.4</f>
+        <v>1.5</v>
+      </c>
+      <c r="J606" s="19">
+        <f>0.7+0.5+0.5</f>
+        <v>1.7</v>
+      </c>
+      <c r="K606" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="L606" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="M606" s="19"/>
+      <c r="N606" s="18"/>
+      <c r="O606" s="18"/>
+    </row>
+    <row r="607" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A607" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B607" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C607" s="22"/>
+      <c r="D607" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E607" s="23">
+        <v>2</v>
+      </c>
+      <c r="F607" s="23">
+        <v>2</v>
+      </c>
+      <c r="G607" s="23">
+        <v>2</v>
+      </c>
+      <c r="H607" s="23">
+        <v>4</v>
+      </c>
+      <c r="I607" s="23">
+        <v>4</v>
+      </c>
+      <c r="J607" s="23">
+        <v>3</v>
+      </c>
+      <c r="K607" s="23">
+        <v>3</v>
+      </c>
+      <c r="L607" s="23">
+        <v>3</v>
+      </c>
+      <c r="M607" s="23"/>
+      <c r="N607" s="22"/>
+      <c r="O607" s="22"/>
+    </row>
+    <row r="608" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A608" s="17">
+        <v>45989</v>
+      </c>
+      <c r="B608" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C608" s="26"/>
+      <c r="D608" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E608" s="27">
+        <f>IF(E607=0, "",
+  LOOKUP(E606/E607,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="F608" s="27">
+        <f>IF(F607=0, "",
+  LOOKUP(F606/F607,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G608" s="27">
+        <f>IF(G607=0, "",
+  LOOKUP(G606/G607,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H608" s="27">
+        <f>IF(H607=0, "",
+  LOOKUP(H606/H607,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I608" s="27">
+        <f>IF(I607=0, "",
+  LOOKUP(I606/I607,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J608" s="27">
+        <f>IF(J607=0, "",
+  LOOKUP(J606/J607,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K608" s="27">
+        <f>IF(K607=0, "",
+  LOOKUP(K606/K607,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="L608" s="27">
+        <f>IF(L607=0, "",
+  LOOKUP(L606/L607,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M608" s="27"/>
+      <c r="N608" s="27">
+        <f>AVERAGE(E608:L608)</f>
+        <v>5.625</v>
+      </c>
+      <c r="O608" s="34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="609" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="610" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A610" s="17">
+        <v>45995</v>
+      </c>
+      <c r="B610" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C610" s="18"/>
+      <c r="D610" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E610" s="19">
+        <f>0.7+0.7</f>
+        <v>1.4</v>
+      </c>
+      <c r="F610" s="19">
+        <v>2</v>
+      </c>
+      <c r="G610" s="19">
+        <v>2</v>
+      </c>
+      <c r="H610" s="19">
+        <f>0.5+0.5+0.5+0.5</f>
+        <v>2</v>
+      </c>
+      <c r="I610" s="19">
+        <f>0.6+0.5+0+0.4</f>
+        <v>1.5</v>
+      </c>
+      <c r="J610" s="19">
+        <f>0.7+0.5+0.5</f>
+        <v>1.7</v>
+      </c>
+      <c r="K610" s="19">
+        <f>0.5+0.5+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="L610" s="19">
+        <f>0.3+0.5+0.2</f>
+        <v>1</v>
+      </c>
+      <c r="M610" s="19"/>
+      <c r="N610" s="18"/>
+      <c r="O610" s="18"/>
+    </row>
+    <row r="611" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A611" s="17">
+        <v>45995</v>
+      </c>
+      <c r="B611" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C611" s="22"/>
+      <c r="D611" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E611" s="23">
+        <v>2</v>
+      </c>
+      <c r="F611" s="23">
+        <v>2</v>
+      </c>
+      <c r="G611" s="23">
+        <v>2</v>
+      </c>
+      <c r="H611" s="23">
+        <v>4</v>
+      </c>
+      <c r="I611" s="23">
+        <v>4</v>
+      </c>
+      <c r="J611" s="23">
+        <v>3</v>
+      </c>
+      <c r="K611" s="23">
+        <v>3</v>
+      </c>
+      <c r="L611" s="23">
+        <v>3</v>
+      </c>
+      <c r="M611" s="23"/>
+      <c r="N611" s="22"/>
+      <c r="O611" s="22"/>
+    </row>
+    <row r="612" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A612" s="17">
+        <v>45995</v>
+      </c>
+      <c r="B612" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C612" s="26"/>
+      <c r="D612" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E612" s="27">
+        <f>IF(E611=0, "",
+  LOOKUP(E610/E611,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F612" s="27">
+        <f>IF(F611=0, "",
+  LOOKUP(F610/F611,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="G612" s="27">
+        <f>IF(G611=0, "",
+  LOOKUP(G610/G611,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H612" s="27">
+        <f>IF(H611=0, "",
+  LOOKUP(H610/H611,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I612" s="27">
+        <f>IF(I611=0, "",
+  LOOKUP(I610/I611,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J612" s="27">
+        <f>IF(J611=0, "",
+  LOOKUP(J610/J611,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K612" s="27">
+        <f>IF(K611=0, "",
+  LOOKUP(K610/K611,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L612" s="27">
+        <f>IF(L611=0, "",
+  LOOKUP(L610/L611,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M612" s="27"/>
+      <c r="N612" s="27">
+        <f>AVERAGE(E612:L612)</f>
+        <v>6.125</v>
+      </c>
+      <c r="O612" s="34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="613" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="614" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A614" s="17">
+        <v>45966</v>
+      </c>
+      <c r="B614" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C614" s="18"/>
+      <c r="D614" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E614" s="19">
+        <f>1+0.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="F614" s="19">
+        <v>1</v>
+      </c>
+      <c r="G614" s="19">
+        <v>0</v>
+      </c>
+      <c r="H614" s="19">
+        <f>0.7+0.4+0.5+0.6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I614" s="19">
+        <f>0+0.6+0+0.6</f>
+        <v>1.2</v>
+      </c>
+      <c r="J614" s="19">
+        <f>0.6+0.7+0.6</f>
+        <v>1.9</v>
+      </c>
+      <c r="K614" s="19">
+        <f>0.6+0.6+0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L614" s="19">
+        <f>0+0.5+0.5</f>
+        <v>1</v>
+      </c>
+      <c r="M614" s="19"/>
+      <c r="N614" s="18"/>
+      <c r="O614" s="18"/>
+    </row>
+    <row r="615" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A615" s="17">
+        <v>45966</v>
+      </c>
+      <c r="B615" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C615" s="22"/>
+      <c r="D615" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E615" s="23">
+        <v>2</v>
+      </c>
+      <c r="F615" s="23">
+        <v>2</v>
+      </c>
+      <c r="G615" s="23">
+        <v>2</v>
+      </c>
+      <c r="H615" s="23">
+        <v>4</v>
+      </c>
+      <c r="I615" s="23">
+        <v>4</v>
+      </c>
+      <c r="J615" s="23">
+        <v>3</v>
+      </c>
+      <c r="K615" s="23">
+        <v>3</v>
+      </c>
+      <c r="L615" s="23">
+        <v>3</v>
+      </c>
+      <c r="M615" s="23"/>
+      <c r="N615" s="22"/>
+      <c r="O615" s="22"/>
+    </row>
+    <row r="616" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A616" s="17">
+        <v>45966</v>
+      </c>
+      <c r="B616" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C616" s="26"/>
+      <c r="D616" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E616" s="27">
+        <f>IF(E615=0, "",
+  LOOKUP(E614/E615,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F616" s="27">
+        <f>IF(F615=0, "",
+  LOOKUP(F614/F615,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G616" s="27">
+        <f>IF(G615=0, "",
+  LOOKUP(G614/G615,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H616" s="27">
+        <f>IF(H615=0, "",
+  LOOKUP(H614/H615,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I616" s="27">
+        <f>IF(I615=0, "",
+  LOOKUP(I614/I615,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J616" s="27">
+        <f>IF(J615=0, "",
+  LOOKUP(J614/J615,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K616" s="27">
+        <f>IF(K615=0, "",
+  LOOKUP(K614/K615,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L616" s="27">
+        <f>IF(L615=0, "",
+  LOOKUP(L614/L615,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M616" s="27"/>
+      <c r="N616" s="27">
+        <f>AVERAGE(E616:L616)</f>
+        <v>4.75</v>
+      </c>
+      <c r="O616" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="617" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="618" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A618" s="17">
+        <v>46001</v>
+      </c>
+      <c r="B618" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C618" s="18"/>
+      <c r="D618" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E618" s="19">
+        <f>1+0.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="F618" s="19">
+        <v>1</v>
+      </c>
+      <c r="G618" s="19">
+        <v>0</v>
+      </c>
+      <c r="H618" s="19">
+        <f>0.7+0.4+0.5+0.6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I618" s="19">
+        <f>0+0.6+0+0.6</f>
+        <v>1.2</v>
+      </c>
+      <c r="J618" s="19">
+        <f>0.6+0.7+0.6</f>
+        <v>1.9</v>
+      </c>
+      <c r="K618" s="19">
+        <f>0.6+0.6+0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L618" s="19">
+        <f>0+0.5+0.5</f>
+        <v>1</v>
+      </c>
+      <c r="M618" s="19"/>
+      <c r="N618" s="18"/>
+      <c r="O618" s="18"/>
+    </row>
+    <row r="619" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A619" s="17">
+        <v>46001</v>
+      </c>
+      <c r="B619" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C619" s="22"/>
+      <c r="D619" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E619" s="23">
+        <v>2</v>
+      </c>
+      <c r="F619" s="23">
+        <v>2</v>
+      </c>
+      <c r="G619" s="23">
+        <v>2</v>
+      </c>
+      <c r="H619" s="23">
+        <v>4</v>
+      </c>
+      <c r="I619" s="23">
+        <v>4</v>
+      </c>
+      <c r="J619" s="23">
+        <v>3</v>
+      </c>
+      <c r="K619" s="23">
+        <v>3</v>
+      </c>
+      <c r="L619" s="23">
+        <v>3</v>
+      </c>
+      <c r="M619" s="23"/>
+      <c r="N619" s="22"/>
+      <c r="O619" s="22"/>
+    </row>
+    <row r="620" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A620" s="17">
+        <v>46001</v>
+      </c>
+      <c r="B620" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C620" s="26"/>
+      <c r="D620" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E620" s="27">
+        <f>IF(E619=0, "",
+  LOOKUP(E618/E619,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F620" s="27">
+        <f>IF(F619=0, "",
+  LOOKUP(F618/F619,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G620" s="27">
+        <f>IF(G619=0, "",
+  LOOKUP(G618/G619,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H620" s="27">
+        <f>IF(H619=0, "",
+  LOOKUP(H618/H619,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I620" s="27">
+        <f>IF(I619=0, "",
+  LOOKUP(I618/I619,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J620" s="27">
+        <f>IF(J619=0, "",
+  LOOKUP(J618/J619,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K620" s="27">
+        <f>IF(K619=0, "",
+  LOOKUP(K618/K619,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L620" s="27">
+        <f>IF(L619=0, "",
+  LOOKUP(L618/L619,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M620" s="27"/>
+      <c r="N620" s="27">
+        <f>AVERAGE(E620:L620)</f>
+        <v>4.75</v>
+      </c>
+      <c r="O620" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="621" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="622" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A622" s="17">
+        <v>46002</v>
+      </c>
+      <c r="B622" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C622" s="18"/>
+      <c r="D622" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E622" s="19">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="F622" s="19">
+        <v>1</v>
+      </c>
+      <c r="G622" s="19">
+        <v>1</v>
+      </c>
+      <c r="H622" s="19">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="I622" s="19">
+        <f>0+0.6+0+0.6</f>
+        <v>1.2</v>
+      </c>
+      <c r="J622" s="19">
+        <f>0.6+0.7+0.6</f>
+        <v>1.9</v>
+      </c>
+      <c r="K622" s="19">
+        <f>0.2+0.2+0.5</f>
+        <v>0.9</v>
+      </c>
+      <c r="L622" s="19">
+        <f>0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="M622" s="19"/>
+      <c r="N622" s="18"/>
+      <c r="O622" s="18"/>
+    </row>
+    <row r="623" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A623" s="17">
+        <v>46002</v>
+      </c>
+      <c r="B623" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C623" s="22"/>
+      <c r="D623" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E623" s="23">
+        <v>2</v>
+      </c>
+      <c r="F623" s="23">
+        <v>2</v>
+      </c>
+      <c r="G623" s="23">
+        <v>2</v>
+      </c>
+      <c r="H623" s="23">
+        <v>4</v>
+      </c>
+      <c r="I623" s="23">
+        <v>4</v>
+      </c>
+      <c r="J623" s="23">
+        <v>3</v>
+      </c>
+      <c r="K623" s="23">
+        <v>3</v>
+      </c>
+      <c r="L623" s="23">
+        <v>3</v>
+      </c>
+      <c r="M623" s="23"/>
+      <c r="N623" s="22"/>
+      <c r="O623" s="22"/>
+    </row>
+    <row r="624" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A624" s="17">
+        <v>46002</v>
+      </c>
+      <c r="B624" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C624" s="26"/>
+      <c r="D624" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E624" s="27">
+        <f>IF(E623=0, "",
+  LOOKUP(E622/E623,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="F624" s="27">
+        <f>IF(F623=0, "",
+  LOOKUP(F622/F623,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G624" s="27">
+        <f>IF(G623=0, "",
+  LOOKUP(G622/G623,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H624" s="27">
+        <f>IF(H623=0, "",
+  LOOKUP(H622/H623,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I624" s="27">
+        <f>IF(I623=0, "",
+  LOOKUP(I622/I623,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J624" s="27">
+        <f>IF(J623=0, "",
+  LOOKUP(J622/J623,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K624" s="27">
+        <f>IF(K623=0, "",
+  LOOKUP(K622/K623,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="L624" s="27">
+        <f>IF(L623=0, "",
+  LOOKUP(L622/L623,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M624" s="27"/>
+      <c r="N624" s="27">
+        <f>AVERAGE(E624:L624)</f>
+        <v>3.875</v>
+      </c>
+      <c r="O624" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="625" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="626" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A626" s="17">
+        <v>46003</v>
+      </c>
+      <c r="B626" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C626" s="18"/>
+      <c r="D626" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E626" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F626" s="19">
+        <v>1</v>
+      </c>
+      <c r="G626" s="19">
+        <v>1</v>
+      </c>
+      <c r="H626" s="19">
+        <f>0.6+0.4+0.5+0.5</f>
+        <v>2</v>
+      </c>
+      <c r="I626" s="19">
+        <f>0.3+0.5+0.4+0</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="J626" s="19">
+        <f>0+0.7+0.6</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="K626" s="19">
+        <f>0.6+0.2+0.5</f>
+        <v>1.3</v>
+      </c>
+      <c r="L626" s="19">
+        <f>0.5+1+0.5</f>
+        <v>2</v>
+      </c>
+      <c r="M626" s="19"/>
+      <c r="N626" s="18"/>
+      <c r="O626" s="18"/>
+    </row>
+    <row r="627" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A627" s="17">
+        <v>46003</v>
+      </c>
+      <c r="B627" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C627" s="22"/>
+      <c r="D627" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E627" s="23">
+        <v>2</v>
+      </c>
+      <c r="F627" s="23">
+        <v>2</v>
+      </c>
+      <c r="G627" s="23">
+        <v>2</v>
+      </c>
+      <c r="H627" s="23">
+        <v>4</v>
+      </c>
+      <c r="I627" s="23">
+        <v>4</v>
+      </c>
+      <c r="J627" s="23">
+        <v>3</v>
+      </c>
+      <c r="K627" s="23">
+        <v>3</v>
+      </c>
+      <c r="L627" s="23">
+        <v>3</v>
+      </c>
+      <c r="M627" s="23"/>
+      <c r="N627" s="22"/>
+      <c r="O627" s="22"/>
+    </row>
+    <row r="628" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A628" s="17">
+        <v>46003</v>
+      </c>
+      <c r="B628" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C628" s="26"/>
+      <c r="D628" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E628" s="27">
+        <f>IF(E627=0, "",
+  LOOKUP(E626/E627,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F628" s="27">
+        <f>IF(F627=0, "",
+  LOOKUP(F626/F627,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G628" s="27">
+        <f>IF(G627=0, "",
+  LOOKUP(G626/G627,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H628" s="27">
+        <f>IF(H627=0, "",
+  LOOKUP(H626/H627,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I628" s="27">
+        <f>IF(I627=0, "",
+  LOOKUP(I626/I627,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J628" s="27">
+        <f>IF(J627=0, "",
+  LOOKUP(J626/J627,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="K628" s="27">
+        <f>IF(K627=0, "",
+  LOOKUP(K626/K627,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="L628" s="27">
+        <f>IF(L627=0, "",
+  LOOKUP(L626/L627,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M628" s="27"/>
+      <c r="N628" s="27">
+        <f>AVERAGE(E628:L628)</f>
+        <v>4.875</v>
+      </c>
+      <c r="O628" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="630" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A630" s="17">
+        <v>46003</v>
+      </c>
+      <c r="B630" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C630" s="18"/>
+      <c r="D630" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E630" s="19">
+        <f>0+0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="F630" s="19">
+        <v>1</v>
+      </c>
+      <c r="G630" s="19">
+        <v>1</v>
+      </c>
+      <c r="H630" s="19">
+        <f>0.4+0.2+0+0</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I630" s="19">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="J630" s="19">
+        <f>0.8+0+0</f>
+        <v>0.8</v>
+      </c>
+      <c r="K630" s="19">
+        <f>0+0.2+0.4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L630" s="19">
+        <f>0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="M630" s="19"/>
+      <c r="N630" s="18"/>
+      <c r="O630" s="18"/>
+    </row>
+    <row r="631" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A631" s="17">
+        <v>46003</v>
+      </c>
+      <c r="B631" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C631" s="22"/>
+      <c r="D631" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E631" s="23">
+        <v>2</v>
+      </c>
+      <c r="F631" s="23">
+        <v>2</v>
+      </c>
+      <c r="G631" s="23">
+        <v>2</v>
+      </c>
+      <c r="H631" s="23">
+        <v>4</v>
+      </c>
+      <c r="I631" s="23">
+        <v>4</v>
+      </c>
+      <c r="J631" s="23">
+        <v>3</v>
+      </c>
+      <c r="K631" s="23">
+        <v>3</v>
+      </c>
+      <c r="L631" s="23">
+        <v>3</v>
+      </c>
+      <c r="M631" s="23"/>
+      <c r="N631" s="22"/>
+      <c r="O631" s="22"/>
+    </row>
+    <row r="632" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A632" s="17">
+        <v>46003</v>
+      </c>
+      <c r="B632" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C632" s="26"/>
+      <c r="D632" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E632" s="27">
+        <f>IF(E631=0, "",
+  LOOKUP(E630/E631,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F632" s="27">
+        <f>IF(F631=0, "",
+  LOOKUP(F630/F631,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G632" s="27">
+        <f>IF(G631=0, "",
+  LOOKUP(G630/G631,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H632" s="27">
+        <f>IF(H631=0, "",
+  LOOKUP(H630/H631,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I632" s="27">
+        <f>IF(I631=0, "",
+  LOOKUP(I630/I631,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J632" s="27">
+        <f>IF(J631=0, "",
+  LOOKUP(J630/J631,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="K632" s="27">
+        <f>IF(K631=0, "",
+  LOOKUP(K630/K631,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L632" s="27">
+        <f>IF(L631=0, "",
+  LOOKUP(L630/L631,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M632" s="27"/>
+      <c r="N632" s="27">
+        <f>AVERAGE(E632:L632)</f>
+        <v>2.125</v>
+      </c>
+      <c r="O632" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="633" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="634" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A634" s="17">
+        <v>46008</v>
+      </c>
+      <c r="B634" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C634" s="18"/>
+      <c r="D634" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E634" s="19">
+        <f>0+0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="F634" s="19">
+        <v>1</v>
+      </c>
+      <c r="G634" s="19">
+        <v>1</v>
+      </c>
+      <c r="H634" s="19">
+        <f>0.4+0.2+0+0</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I634" s="19">
+        <f>0+0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="J634" s="19">
+        <f>0.8+0+0</f>
+        <v>0.8</v>
+      </c>
+      <c r="K634" s="19">
+        <f>0+0.2+0.4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L634" s="19">
+        <f>0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="M634" s="19"/>
+      <c r="N634" s="18"/>
+      <c r="O634" s="18"/>
+    </row>
+    <row r="635" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A635" s="17">
+        <v>46008</v>
+      </c>
+      <c r="B635" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C635" s="22"/>
+      <c r="D635" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E635" s="23">
+        <v>2</v>
+      </c>
+      <c r="F635" s="23">
+        <v>2</v>
+      </c>
+      <c r="G635" s="23">
+        <v>2</v>
+      </c>
+      <c r="H635" s="23">
+        <v>4</v>
+      </c>
+      <c r="I635" s="23">
+        <v>4</v>
+      </c>
+      <c r="J635" s="23">
+        <v>3</v>
+      </c>
+      <c r="K635" s="23">
+        <v>3</v>
+      </c>
+      <c r="L635" s="23">
+        <v>3</v>
+      </c>
+      <c r="M635" s="23"/>
+      <c r="N635" s="22"/>
+      <c r="O635" s="22"/>
+    </row>
+    <row r="636" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A636" s="17">
+        <v>46008</v>
+      </c>
+      <c r="B636" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C636" s="26"/>
+      <c r="D636" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E636" s="27">
+        <f>IF(E635=0, "",
+  LOOKUP(E634/E635,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F636" s="27">
+        <f>IF(F635=0, "",
+  LOOKUP(F634/F635,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G636" s="27">
+        <f>IF(G635=0, "",
+  LOOKUP(G634/G635,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H636" s="27">
+        <f>IF(H635=0, "",
+  LOOKUP(H634/H635,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I636" s="27">
+        <f>IF(I635=0, "",
+  LOOKUP(I634/I635,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J636" s="27">
+        <f>IF(J635=0, "",
+  LOOKUP(J634/J635,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="K636" s="27">
+        <f>IF(K635=0, "",
+  LOOKUP(K634/K635,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L636" s="27">
+        <f>IF(L635=0, "",
+  LOOKUP(L634/L635,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M636" s="27"/>
+      <c r="N636" s="27">
+        <f>AVERAGE(E636:L636)</f>
+        <v>2.125</v>
+      </c>
+      <c r="O636" s="34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="637" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="638" spans="1:15" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A638" s="17">
+        <v>46008</v>
+      </c>
+      <c r="B638" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D638" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E638" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="F638" s="19">
+        <v>1</v>
+      </c>
+      <c r="G638" s="19">
+        <v>0</v>
+      </c>
+      <c r="H638" s="19">
+        <f>0.7+0+0.3+0.3</f>
+        <v>1.3</v>
+      </c>
+      <c r="I638" s="19">
+        <f>0.7+0.7+0.5+0.2</f>
+        <v>2.1</v>
+      </c>
+      <c r="J638" s="19">
+        <f>0.6+0.5+0.7</f>
+        <v>1.8</v>
+      </c>
+      <c r="K638" s="19">
+        <f>0+0.3+0.4</f>
+        <v>0.7</v>
+      </c>
+      <c r="L638" s="19">
+        <f>0.3+0.7+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="M638" s="19"/>
+    </row>
+    <row r="639" spans="1:15" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A639" s="17">
+        <v>46008</v>
+      </c>
+      <c r="B639" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D639" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E639" s="23">
+        <v>2</v>
+      </c>
+      <c r="F639" s="23">
+        <v>2</v>
+      </c>
+      <c r="G639" s="23">
+        <v>2</v>
+      </c>
+      <c r="H639" s="23">
+        <v>4</v>
+      </c>
+      <c r="I639" s="23">
+        <v>4</v>
+      </c>
+      <c r="J639" s="23">
+        <v>3</v>
+      </c>
+      <c r="K639" s="23">
+        <v>3</v>
+      </c>
+      <c r="L639" s="23">
+        <v>3</v>
+      </c>
+      <c r="M639" s="23"/>
+    </row>
+    <row r="640" spans="1:15" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A640" s="17">
+        <v>46008</v>
+      </c>
+      <c r="B640" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D640" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E640" s="27">
+        <f>IF(E639=0, "",
+  LOOKUP(E638/E639,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F640" s="27">
+        <f>IF(F639=0, "",
+  LOOKUP(F638/F639,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G640" s="27">
+        <f>IF(G639=0, "",
+  LOOKUP(G638/G639,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H640" s="27">
+        <f>IF(H639=0, "",
+  LOOKUP(H638/H639,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="I640" s="27">
+        <f>IF(I639=0, "",
+  LOOKUP(I638/I639,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J640" s="27">
+        <f>IF(J639=0, "",
+  LOOKUP(J638/J639,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K640" s="27">
+        <f>IF(K639=0, "",
+  LOOKUP(K638/K639,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="L640" s="27">
+        <f>IF(L639=0, "",
+  LOOKUP(L638/L639,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M640" s="27"/>
+      <c r="N640" s="27">
+        <f>AVERAGE(E640:L640)</f>
+        <v>4</v>
+      </c>
+      <c r="O640" s="34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="641" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="642" spans="1:15" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A642" s="17">
+        <v>46011</v>
+      </c>
+      <c r="B642" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D642" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E642" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="F642" s="19">
+        <v>1</v>
+      </c>
+      <c r="G642" s="19">
+        <v>0</v>
+      </c>
+      <c r="H642" s="19">
+        <f>0+0+0.2+0</f>
+        <v>0.2</v>
+      </c>
+      <c r="I642" s="19">
+        <f>0.2+0+0+0.4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J642" s="19">
+        <f>0+0.2+0</f>
+        <v>0.2</v>
+      </c>
+      <c r="K642" s="19">
+        <f>0+0.3+0.2</f>
+        <v>0.5</v>
+      </c>
+      <c r="L642" s="19">
+        <f>0+0.4+0</f>
+        <v>0.4</v>
+      </c>
+      <c r="M642" s="19"/>
+    </row>
+    <row r="643" spans="1:15" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A643" s="17">
+        <v>46011</v>
+      </c>
+      <c r="B643" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D643" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E643" s="23">
+        <v>2</v>
+      </c>
+      <c r="F643" s="23">
+        <v>2</v>
+      </c>
+      <c r="G643" s="23">
+        <v>2</v>
+      </c>
+      <c r="H643" s="23">
+        <v>4</v>
+      </c>
+      <c r="I643" s="23">
+        <v>4</v>
+      </c>
+      <c r="J643" s="23">
+        <v>3</v>
+      </c>
+      <c r="K643" s="23">
+        <v>3</v>
+      </c>
+      <c r="L643" s="23">
+        <v>3</v>
+      </c>
+      <c r="M643" s="23"/>
+    </row>
+    <row r="644" spans="1:15" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A644" s="17">
+        <v>46011</v>
+      </c>
+      <c r="B644" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D644" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E644" s="27">
+        <f>IF(E643=0, "",
+  LOOKUP(E642/E643,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F644" s="27">
+        <f>IF(F643=0, "",
+  LOOKUP(F642/F643,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G644" s="27">
+        <f>IF(G643=0, "",
+  LOOKUP(G642/G643,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H644" s="27">
+        <f>IF(H643=0, "",
+  LOOKUP(H642/H643,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I644" s="27">
+        <f>IF(I643=0, "",
+  LOOKUP(I642/I643,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J644" s="27">
+        <f>IF(J643=0, "",
+  LOOKUP(J642/J643,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="K644" s="27">
+        <f>IF(K643=0, "",
+  LOOKUP(K642/K643,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L644" s="27">
+        <f>IF(L643=0, "",
+  LOOKUP(L642/L643,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M644" s="27"/>
+      <c r="N644" s="27">
+        <f>AVERAGE(E644:L644)</f>
+        <v>1.5</v>
+      </c>
+      <c r="O644" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="645" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="646" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A646" s="17">
+        <v>46013</v>
+      </c>
+      <c r="B646" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C646" s="18"/>
+      <c r="D646" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E646" s="19">
+        <f>1+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="F646" s="19">
+        <v>1</v>
+      </c>
+      <c r="G646" s="19">
+        <v>0</v>
+      </c>
+      <c r="H646" s="19">
+        <f>0.5+0.5+0.5+0.5</f>
+        <v>2</v>
+      </c>
+      <c r="I646" s="19">
+        <f>0.2+0.5+0.5+0</f>
+        <v>1.2</v>
+      </c>
+      <c r="J646" s="19">
+        <f>0+0.2+0</f>
+        <v>0.2</v>
+      </c>
+      <c r="K646" s="19">
+        <f>0+0.3+0.2</f>
+        <v>0.5</v>
+      </c>
+      <c r="L646" s="19">
+        <f>0.6+0+0.5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M646" s="19"/>
+      <c r="N646" s="18"/>
+      <c r="O646" s="18"/>
+    </row>
+    <row r="647" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A647" s="17">
+        <v>46013</v>
+      </c>
+      <c r="B647" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C647" s="22"/>
+      <c r="D647" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E647" s="23">
+        <v>2</v>
+      </c>
+      <c r="F647" s="23">
+        <v>2</v>
+      </c>
+      <c r="G647" s="23">
+        <v>2</v>
+      </c>
+      <c r="H647" s="23">
+        <v>4</v>
+      </c>
+      <c r="I647" s="23">
+        <v>4</v>
+      </c>
+      <c r="J647" s="23">
+        <v>3</v>
+      </c>
+      <c r="K647" s="23">
+        <v>3</v>
+      </c>
+      <c r="L647" s="23">
+        <v>3</v>
+      </c>
+      <c r="M647" s="23"/>
+      <c r="N647" s="22"/>
+      <c r="O647" s="22"/>
+    </row>
+    <row r="648" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A648" s="17">
+        <v>46013</v>
+      </c>
+      <c r="B648" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C648" s="26"/>
+      <c r="D648" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E648" s="27">
+        <f>IF(E647=0, "",
+  LOOKUP(E646/E647,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F648" s="27">
+        <f>IF(F647=0, "",
+  LOOKUP(F646/F647,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G648" s="27">
+        <f>IF(G647=0, "",
+  LOOKUP(G646/G647,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H648" s="27">
+        <f>IF(H647=0, "",
+  LOOKUP(H646/H647,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I648" s="27">
+        <f>IF(I647=0, "",
+  LOOKUP(I646/I647,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J648" s="27">
+        <f>IF(J647=0, "",
+  LOOKUP(J646/J647,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="K648" s="27">
+        <f>IF(K647=0, "",
+  LOOKUP(K646/K647,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L648" s="27">
+        <f>IF(L647=0, "",
+  LOOKUP(L646/L647,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M648" s="27"/>
+      <c r="N648" s="27">
+        <f>AVERAGE(E648:L648)</f>
+        <v>3.375</v>
+      </c>
+      <c r="O648" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="649" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="650" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A650" s="17">
+        <v>46013</v>
+      </c>
+      <c r="B650" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C650" s="18"/>
+      <c r="D650" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E650" s="19">
+        <f>1+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="F650" s="19">
+        <v>1</v>
+      </c>
+      <c r="G650" s="19">
+        <v>0</v>
+      </c>
+      <c r="H650" s="19">
+        <f>0.7+0.7+0.5+0.5</f>
+        <v>2.4</v>
+      </c>
+      <c r="I650" s="19">
+        <f>0.5+0.5+0.5+0.7</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J650" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="K650" s="19">
+        <f>0.5+0.5+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="L650" s="19">
+        <f>0.6+0.5+0.2</f>
+        <v>1.3</v>
+      </c>
+      <c r="M650" s="19"/>
+      <c r="N650" s="18"/>
+      <c r="O650" s="18"/>
+    </row>
+    <row r="651" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A651" s="17">
+        <v>46013</v>
+      </c>
+      <c r="B651" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C651" s="22"/>
+      <c r="D651" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E651" s="23">
+        <v>2</v>
+      </c>
+      <c r="F651" s="23">
+        <v>2</v>
+      </c>
+      <c r="G651" s="23">
+        <v>2</v>
+      </c>
+      <c r="H651" s="23">
+        <v>4</v>
+      </c>
+      <c r="I651" s="23">
+        <v>4</v>
+      </c>
+      <c r="J651" s="23">
+        <v>3</v>
+      </c>
+      <c r="K651" s="23">
+        <v>3</v>
+      </c>
+      <c r="L651" s="23">
+        <v>3</v>
+      </c>
+      <c r="M651" s="23"/>
+      <c r="N651" s="22"/>
+      <c r="O651" s="22"/>
+    </row>
+    <row r="652" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A652" s="17">
+        <v>46013</v>
+      </c>
+      <c r="B652" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C652" s="26"/>
+      <c r="D652" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E652" s="27">
+        <f>IF(E651=0, "",
+  LOOKUP(E650/E651,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F652" s="27">
+        <f>IF(F651=0, "",
+  LOOKUP(F650/F651,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G652" s="27">
+        <f>IF(G651=0, "",
+  LOOKUP(G650/G651,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H652" s="27">
+        <f>IF(H651=0, "",
+  LOOKUP(H650/H651,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I652" s="27">
+        <f>IF(I651=0, "",
+  LOOKUP(I650/I651,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J652" s="27">
+        <f>IF(J651=0, "",
+  LOOKUP(J650/J651,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="K652" s="27">
+        <f>IF(K651=0, "",
+  LOOKUP(K650/K651,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L652" s="27">
+        <f>IF(L651=0, "",
+  LOOKUP(L650/L651,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M652" s="27"/>
+      <c r="N652" s="27">
+        <f>AVERAGE(E652:L652)</f>
+        <v>5.5</v>
+      </c>
+      <c r="O652" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="653" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="654" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A654" s="17">
+        <v>46015</v>
+      </c>
+      <c r="B654" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C654" s="18"/>
+      <c r="D654" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E654" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F654" s="19">
+        <v>1</v>
+      </c>
+      <c r="G654" s="19">
+        <v>1</v>
+      </c>
+      <c r="H654" s="19">
+        <f>0.5+0.5+0.5+0.2</f>
+        <v>1.7</v>
+      </c>
+      <c r="I654" s="19">
+        <f>0.5+0+0+0</f>
+        <v>0.5</v>
+      </c>
+      <c r="J654" s="19">
+        <f>0.3+0.7+0.6</f>
+        <v>1.6</v>
+      </c>
+      <c r="K654" s="19">
+        <f>0+0+0.7</f>
+        <v>0.7</v>
+      </c>
+      <c r="L654" s="19">
+        <f>0.3+0.4+0.4</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M654" s="19"/>
+      <c r="N654" s="18"/>
+      <c r="O654" s="18"/>
+    </row>
+    <row r="655" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A655" s="17">
+        <v>46015</v>
+      </c>
+      <c r="B655" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C655" s="22"/>
+      <c r="D655" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E655" s="23">
+        <v>2</v>
+      </c>
+      <c r="F655" s="23">
+        <v>2</v>
+      </c>
+      <c r="G655" s="23">
+        <v>2</v>
+      </c>
+      <c r="H655" s="23">
+        <v>4</v>
+      </c>
+      <c r="I655" s="23">
+        <v>4</v>
+      </c>
+      <c r="J655" s="23">
+        <v>3</v>
+      </c>
+      <c r="K655" s="23">
+        <v>3</v>
+      </c>
+      <c r="L655" s="23">
+        <v>3</v>
+      </c>
+      <c r="M655" s="23"/>
+      <c r="N655" s="22"/>
+      <c r="O655" s="22"/>
+    </row>
+    <row r="656" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A656" s="17">
+        <v>46015</v>
+      </c>
+      <c r="B656" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C656" s="26"/>
+      <c r="D656" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E656" s="27">
+        <f>IF(E655=0, "",
+  LOOKUP(E654/E655,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F656" s="27">
+        <f>IF(F655=0, "",
+  LOOKUP(F654/F655,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G656" s="27">
+        <f>IF(G655=0, "",
+  LOOKUP(G654/G655,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H656" s="27">
+        <f>IF(H655=0, "",
+  LOOKUP(H654/H655,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I656" s="27">
+        <f>IF(I655=0, "",
+  LOOKUP(I654/I655,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J656" s="27">
+        <f>IF(J655=0, "",
+  LOOKUP(J654/J655,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K656" s="27">
+        <f>IF(K655=0, "",
+  LOOKUP(K654/K655,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="L656" s="27">
+        <f>IF(L655=0, "",
+  LOOKUP(L654/L655,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M656" s="27"/>
+      <c r="N656" s="27">
+        <f>AVERAGE(E656:L656)</f>
+        <v>4.375</v>
+      </c>
+      <c r="O656" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="657" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="658" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A658" s="17">
+        <v>46015</v>
+      </c>
+      <c r="B658" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C658" s="18"/>
+      <c r="D658" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E658" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F658" s="19">
+        <v>1</v>
+      </c>
+      <c r="G658" s="19">
+        <v>1</v>
+      </c>
+      <c r="H658" s="19">
+        <f>0.5+0.5+0+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="I658" s="19">
+        <f>0.2+0+0+0</f>
+        <v>0.2</v>
+      </c>
+      <c r="J658" s="19">
+        <f>0.8+0.2+0</f>
+        <v>1</v>
+      </c>
+      <c r="K658" s="19">
+        <f>0+0.2+0.4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L658" s="19">
+        <f>0.7+1+0.4</f>
+        <v>2.1</v>
+      </c>
+      <c r="M658" s="19"/>
+      <c r="N658" s="18"/>
+      <c r="O658" s="18"/>
+    </row>
+    <row r="659" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A659" s="17">
+        <v>46015</v>
+      </c>
+      <c r="B659" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C659" s="22"/>
+      <c r="D659" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E659" s="23">
+        <v>2</v>
+      </c>
+      <c r="F659" s="23">
+        <v>2</v>
+      </c>
+      <c r="G659" s="23">
+        <v>2</v>
+      </c>
+      <c r="H659" s="23">
+        <v>4</v>
+      </c>
+      <c r="I659" s="23">
+        <v>4</v>
+      </c>
+      <c r="J659" s="23">
+        <v>3</v>
+      </c>
+      <c r="K659" s="23">
+        <v>3</v>
+      </c>
+      <c r="L659" s="23">
+        <v>3</v>
+      </c>
+      <c r="M659" s="23"/>
+      <c r="N659" s="22"/>
+      <c r="O659" s="22"/>
+    </row>
+    <row r="660" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A660" s="17">
+        <v>46015</v>
+      </c>
+      <c r="B660" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C660" s="26"/>
+      <c r="D660" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E660" s="27">
+        <f>IF(E659=0, "",
+  LOOKUP(E658/E659,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F660" s="27">
+        <f>IF(F659=0, "",
+  LOOKUP(F658/F659,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G660" s="27">
+        <f>IF(G659=0, "",
+  LOOKUP(G658/G659,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H660" s="27">
+        <f>IF(H659=0, "",
+  LOOKUP(H658/H659,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I660" s="27">
+        <f>IF(I659=0, "",
+  LOOKUP(I658/I659,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J660" s="27">
+        <f>IF(J659=0, "",
+  LOOKUP(J658/J659,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="K660" s="27">
+        <f>IF(K659=0, "",
+  LOOKUP(K658/K659,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L660" s="27">
+        <f>IF(L659=0, "",
+  LOOKUP(L658/L659,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M660" s="27"/>
+      <c r="N660" s="27">
+        <f>AVERAGE(E660:L660)</f>
+        <v>3.875</v>
+      </c>
+      <c r="O660" s="34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="661" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="662" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A662" s="17">
+        <v>46016</v>
+      </c>
+      <c r="B662" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C662" s="18"/>
+      <c r="D662" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E662" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F662" s="19">
+        <v>1</v>
+      </c>
+      <c r="G662" s="19">
+        <v>1</v>
+      </c>
+      <c r="H662" s="19">
+        <f>0.7+0.5+0+0</f>
+        <v>1.2</v>
+      </c>
+      <c r="I662" s="19">
+        <f>0.4+0+0+0.5</f>
+        <v>0.9</v>
+      </c>
+      <c r="J662" s="19">
+        <f>0.8+0.2+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="K662" s="19">
+        <f>0+0.2+0.4</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L662" s="19">
+        <f>0.5+0.3+0.4</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="M662" s="19"/>
+      <c r="N662" s="18"/>
+      <c r="O662" s="18"/>
+    </row>
+    <row r="663" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A663" s="17">
+        <v>46016</v>
+      </c>
+      <c r="B663" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C663" s="22"/>
+      <c r="D663" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E663" s="23">
+        <v>2</v>
+      </c>
+      <c r="F663" s="23">
+        <v>2</v>
+      </c>
+      <c r="G663" s="23">
+        <v>2</v>
+      </c>
+      <c r="H663" s="23">
+        <v>4</v>
+      </c>
+      <c r="I663" s="23">
+        <v>4</v>
+      </c>
+      <c r="J663" s="23">
+        <v>3</v>
+      </c>
+      <c r="K663" s="23">
+        <v>3</v>
+      </c>
+      <c r="L663" s="23">
+        <v>3</v>
+      </c>
+      <c r="M663" s="23"/>
+      <c r="N663" s="22"/>
+      <c r="O663" s="22"/>
+    </row>
+    <row r="664" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A664" s="17">
+        <v>46016</v>
+      </c>
+      <c r="B664" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C664" s="26"/>
+      <c r="D664" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E664" s="27">
+        <f>IF(E663=0, "",
+  LOOKUP(E662/E663,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F664" s="27">
+        <f>IF(F663=0, "",
+  LOOKUP(F662/F663,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G664" s="27">
+        <f>IF(G663=0, "",
+  LOOKUP(G662/G663,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H664" s="27">
+        <f>IF(H663=0, "",
+  LOOKUP(H662/H663,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="I664" s="27">
+        <f>IF(I663=0, "",
+  LOOKUP(I662/I663,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J664" s="27">
+        <f>IF(J663=0, "",
+  LOOKUP(J662/J663,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="K664" s="27">
+        <f>IF(K663=0, "",
+  LOOKUP(K662/K663,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L664" s="27">
+        <f>IF(L663=0, "",
+  LOOKUP(L662/L663,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M664" s="27"/>
+      <c r="N664" s="27">
+        <f>AVERAGE(E664:L664)</f>
+        <v>3.75</v>
+      </c>
+      <c r="O664" s="34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="665" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="666" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A666" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B666" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C666" s="18"/>
+      <c r="D666" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E666" s="19">
+        <f>1+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="F666" s="19">
+        <v>1</v>
+      </c>
+      <c r="G666" s="19">
+        <v>0</v>
+      </c>
+      <c r="H666" s="19">
+        <f>0.7+0.7+0.5+0.5</f>
+        <v>2.4</v>
+      </c>
+      <c r="I666" s="19">
+        <f>0.5+0.5+0.5+0.7</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J666" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="K666" s="19">
+        <f>0.5+0.5+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="L666" s="19">
+        <f>0.6+0.5+0.2</f>
+        <v>1.3</v>
+      </c>
+      <c r="M666" s="19"/>
+      <c r="N666" s="18"/>
+      <c r="O666" s="18"/>
+    </row>
+    <row r="667" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A667" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B667" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C667" s="22"/>
+      <c r="D667" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E667" s="23">
+        <v>2</v>
+      </c>
+      <c r="F667" s="23">
+        <v>2</v>
+      </c>
+      <c r="G667" s="23">
+        <v>2</v>
+      </c>
+      <c r="H667" s="23">
+        <v>4</v>
+      </c>
+      <c r="I667" s="23">
+        <v>4</v>
+      </c>
+      <c r="J667" s="23">
+        <v>3</v>
+      </c>
+      <c r="K667" s="23">
+        <v>3</v>
+      </c>
+      <c r="L667" s="23">
+        <v>3</v>
+      </c>
+      <c r="M667" s="23"/>
+      <c r="N667" s="22"/>
+      <c r="O667" s="22"/>
+    </row>
+    <row r="668" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A668" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B668" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C668" s="26"/>
+      <c r="D668" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E668" s="27">
+        <f>IF(E667=0, "",
+  LOOKUP(E666/E667,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="F668" s="27">
+        <f>IF(F667=0, "",
+  LOOKUP(F666/F667,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G668" s="27">
+        <f>IF(G667=0, "",
+  LOOKUP(G666/G667,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H668" s="27">
+        <f>IF(H667=0, "",
+  LOOKUP(H666/H667,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I668" s="27">
+        <f>IF(I667=0, "",
+  LOOKUP(I666/I667,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J668" s="27">
+        <f>IF(J667=0, "",
+  LOOKUP(J666/J667,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="K668" s="27">
+        <f>IF(K667=0, "",
+  LOOKUP(K666/K667,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L668" s="27">
+        <f>IF(L667=0, "",
+  LOOKUP(L666/L667,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M668" s="27"/>
+      <c r="N668" s="27">
+        <f>AVERAGE(E668:L668)</f>
+        <v>5.5</v>
+      </c>
+      <c r="O668" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="669" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="670" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A670" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B670" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C670" s="18"/>
+      <c r="D670" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E670" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F670" s="19">
+        <v>1</v>
+      </c>
+      <c r="G670" s="19">
+        <v>0</v>
+      </c>
+      <c r="H670" s="19">
+        <f>0.4+0.2+0.5+0.7</f>
+        <v>1.8</v>
+      </c>
+      <c r="I670" s="19">
+        <f>0.4+0.5+0.5+0.3</f>
+        <v>1.7</v>
+      </c>
+      <c r="J670" s="19">
+        <f>0.5+0.5+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="K670" s="19">
+        <f>0+0.7+1</f>
+        <v>1.7</v>
+      </c>
+      <c r="L670" s="19">
+        <f>0+0.5+0.2</f>
+        <v>0.7</v>
+      </c>
+      <c r="M670" s="19"/>
+      <c r="N670" s="18"/>
+      <c r="O670" s="18"/>
+    </row>
+    <row r="671" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A671" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B671" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C671" s="22"/>
+      <c r="D671" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E671" s="23">
+        <v>2</v>
+      </c>
+      <c r="F671" s="23">
+        <v>2</v>
+      </c>
+      <c r="G671" s="23">
+        <v>2</v>
+      </c>
+      <c r="H671" s="23">
+        <v>4</v>
+      </c>
+      <c r="I671" s="23">
+        <v>4</v>
+      </c>
+      <c r="J671" s="23">
+        <v>3</v>
+      </c>
+      <c r="K671" s="23">
+        <v>3</v>
+      </c>
+      <c r="L671" s="23">
+        <v>3</v>
+      </c>
+      <c r="M671" s="23"/>
+      <c r="N671" s="22"/>
+      <c r="O671" s="22"/>
+    </row>
+    <row r="672" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A672" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B672" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C672" s="26"/>
+      <c r="D672" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E672" s="27">
+        <f>IF(E671=0, "",
+  LOOKUP(E670/E671,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F672" s="27">
+        <f>IF(F671=0, "",
+  LOOKUP(F670/F671,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G672" s="27">
+        <f>IF(G671=0, "",
+  LOOKUP(G670/G671,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H672" s="27">
+        <f>IF(H671=0, "",
+  LOOKUP(H670/H671,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I672" s="27">
+        <f>IF(I671=0, "",
+  LOOKUP(I670/I671,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J672" s="27">
+        <f>IF(J671=0, "",
+  LOOKUP(J670/J671,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K672" s="27">
+        <f>IF(K671=0, "",
+  LOOKUP(K670/K671,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L672" s="27">
+        <f>IF(L671=0, "",
+  LOOKUP(L670/L671,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M672" s="27"/>
+      <c r="N672" s="27">
+        <f>AVERAGE(E672:L672)</f>
+        <v>4.625</v>
+      </c>
+      <c r="O672" s="34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="673" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="674" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A674" s="17">
+        <v>46022</v>
+      </c>
+      <c r="B674" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C674" s="18"/>
+      <c r="D674" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E674" s="19">
+        <f>0.5+0</f>
+        <v>0.5</v>
+      </c>
+      <c r="F674" s="19">
+        <v>1</v>
+      </c>
+      <c r="G674" s="19">
+        <v>0</v>
+      </c>
+      <c r="H674" s="19">
+        <f>0+0+0.4+0.2</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I674" s="19">
+        <f>0.5+0.5+0.2+0</f>
+        <v>1.2</v>
+      </c>
+      <c r="J674" s="19">
+        <f>0+0.2+0.3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K674" s="19">
+        <f>0.6+0.3+0.7</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="L674" s="19">
+        <f>0.3+0+0.5</f>
+        <v>0.8</v>
+      </c>
+      <c r="M674" s="19"/>
+      <c r="N674" s="18"/>
+      <c r="O674" s="18"/>
+    </row>
+    <row r="675" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A675" s="17">
+        <v>46022</v>
+      </c>
+      <c r="B675" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C675" s="22"/>
+      <c r="D675" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E675" s="23">
+        <v>2</v>
+      </c>
+      <c r="F675" s="23">
+        <v>2</v>
+      </c>
+      <c r="G675" s="23">
+        <v>2</v>
+      </c>
+      <c r="H675" s="23">
+        <v>4</v>
+      </c>
+      <c r="I675" s="23">
+        <v>4</v>
+      </c>
+      <c r="J675" s="23">
+        <v>3</v>
+      </c>
+      <c r="K675" s="23">
+        <v>3</v>
+      </c>
+      <c r="L675" s="23">
+        <v>3</v>
+      </c>
+      <c r="M675" s="23"/>
+      <c r="N675" s="22"/>
+      <c r="O675" s="22"/>
+    </row>
+    <row r="676" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A676" s="17">
+        <v>46022</v>
+      </c>
+      <c r="B676" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C676" s="26"/>
+      <c r="D676" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E676" s="27">
+        <f>IF(E675=0, "",
+  LOOKUP(E674/E675,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="F676" s="27">
+        <f>IF(F675=0, "",
+  LOOKUP(F674/F675,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G676" s="27">
+        <f>IF(G675=0, "",
+  LOOKUP(G674/G675,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H676" s="27">
+        <f>IF(H675=0, "",
+  LOOKUP(H674/H675,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I676" s="27">
+        <f>IF(I675=0, "",
+  LOOKUP(I674/I675,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J676" s="27">
+        <f>IF(J675=0, "",
+  LOOKUP(J674/J675,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="K676" s="27">
+        <f>IF(K675=0, "",
+  LOOKUP(K674/K675,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L676" s="27">
+        <f>IF(L675=0, "",
+  LOOKUP(L674/L675,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="M676" s="27"/>
+      <c r="N676" s="27">
+        <f>AVERAGE(E676:L676)</f>
+        <v>2.625</v>
+      </c>
+      <c r="O676" s="34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="677" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="678" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A678" s="17">
+        <v>46022</v>
+      </c>
+      <c r="B678" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C678" s="18"/>
+      <c r="D678" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E678" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F678" s="19">
+        <v>1</v>
+      </c>
+      <c r="G678" s="19">
+        <v>0</v>
+      </c>
+      <c r="H678" s="19">
+        <f>0.6+0.6+0.4+0.2</f>
+        <v>1.8</v>
+      </c>
+      <c r="I678" s="19">
+        <f>0+0.5+0.2+0.4</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J678" s="19">
+        <f>0+0.2+0.3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K678" s="19">
+        <f>0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="L678" s="19">
+        <f>0+0+0</f>
+        <v>0</v>
+      </c>
+      <c r="M678" s="19"/>
+      <c r="N678" s="18"/>
+      <c r="O678" s="18"/>
+    </row>
+    <row r="679" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A679" s="17">
+        <v>46022</v>
+      </c>
+      <c r="B679" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C679" s="22"/>
+      <c r="D679" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E679" s="23">
+        <v>2</v>
+      </c>
+      <c r="F679" s="23">
+        <v>2</v>
+      </c>
+      <c r="G679" s="23">
+        <v>2</v>
+      </c>
+      <c r="H679" s="23">
+        <v>4</v>
+      </c>
+      <c r="I679" s="23">
+        <v>4</v>
+      </c>
+      <c r="J679" s="23">
+        <v>3</v>
+      </c>
+      <c r="K679" s="23">
+        <v>3</v>
+      </c>
+      <c r="L679" s="23">
+        <v>3</v>
+      </c>
+      <c r="M679" s="23"/>
+      <c r="N679" s="22"/>
+      <c r="O679" s="22"/>
+    </row>
+    <row r="680" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A680" s="17">
+        <v>46022</v>
+      </c>
+      <c r="B680" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C680" s="26"/>
+      <c r="D680" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E680" s="27">
+        <f>IF(E679=0, "",
+  LOOKUP(E678/E679,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F680" s="27">
+        <f>IF(F679=0, "",
+  LOOKUP(F678/F679,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G680" s="27">
+        <f>IF(G679=0, "",
+  LOOKUP(G678/G679,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H680" s="27">
+        <f>IF(H679=0, "",
+  LOOKUP(H678/H679,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I680" s="27">
+        <f>IF(I679=0, "",
+  LOOKUP(I678/I679,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J680" s="27">
+        <f>IF(J679=0, "",
+  LOOKUP(J678/J679,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="K680" s="27">
+        <f>IF(K679=0, "",
+  LOOKUP(K678/K679,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L680" s="27">
+        <f>IF(L679=0, "",
+  LOOKUP(L678/L679,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M680" s="27"/>
+      <c r="N680" s="27">
+        <f>AVERAGE(E680:L680)</f>
+        <v>2.625</v>
+      </c>
+      <c r="O680" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="681" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="682" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A682" s="17">
+        <v>46027</v>
+      </c>
+      <c r="B682" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C682" s="18"/>
+      <c r="D682" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E682" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F682" s="19">
+        <v>1</v>
+      </c>
+      <c r="G682" s="19">
+        <v>0</v>
+      </c>
+      <c r="H682" s="19">
+        <f>0+0.3+0+0</f>
+        <v>0.3</v>
+      </c>
+      <c r="I682" s="19">
+        <f>0.5+0.5+0.4+0</f>
+        <v>1.4</v>
+      </c>
+      <c r="J682" s="19">
+        <f>0+0.2+0.3</f>
+        <v>0.5</v>
+      </c>
+      <c r="K682" s="19">
+        <f>0+0+0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="L682" s="19">
+        <f>0.4+0+0</f>
+        <v>0.4</v>
+      </c>
+      <c r="M682" s="19"/>
+      <c r="N682" s="18"/>
+      <c r="O682" s="18"/>
+    </row>
+    <row r="683" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A683" s="17">
+        <v>46027</v>
+      </c>
+      <c r="B683" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C683" s="22"/>
+      <c r="D683" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E683" s="23">
+        <v>2</v>
+      </c>
+      <c r="F683" s="23">
+        <v>2</v>
+      </c>
+      <c r="G683" s="23">
+        <v>2</v>
+      </c>
+      <c r="H683" s="23">
+        <v>4</v>
+      </c>
+      <c r="I683" s="23">
+        <v>4</v>
+      </c>
+      <c r="J683" s="23">
+        <v>3</v>
+      </c>
+      <c r="K683" s="23">
+        <v>3</v>
+      </c>
+      <c r="L683" s="23">
+        <v>3</v>
+      </c>
+      <c r="M683" s="23"/>
+      <c r="N683" s="22"/>
+      <c r="O683" s="22"/>
+    </row>
+    <row r="684" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A684" s="17">
+        <v>46027</v>
+      </c>
+      <c r="B684" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C684" s="26"/>
+      <c r="D684" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E684" s="27">
+        <f>IF(E683=0, "",
+  LOOKUP(E682/E683,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F684" s="27">
+        <f>IF(F683=0, "",
+  LOOKUP(F682/F683,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G684" s="27">
+        <f>IF(G683=0, "",
+  LOOKUP(G682/G683,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H684" s="27">
+        <f>IF(H683=0, "",
+  LOOKUP(H682/H683,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="I684" s="27">
+        <f>IF(I683=0, "",
+  LOOKUP(I682/I683,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="J684" s="27">
+        <f>IF(J683=0, "",
+  LOOKUP(J682/J683,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="K684" s="27">
+        <f>IF(K683=0, "",
+  LOOKUP(K682/K683,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L684" s="27">
+        <f>IF(L683=0, "",
+  LOOKUP(L682/L683,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M684" s="27"/>
+      <c r="N684" s="27">
+        <f>AVERAGE(E684:L684)</f>
+        <v>2.125</v>
+      </c>
+      <c r="O684" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="685" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="686" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A686" s="17">
+        <v>46028</v>
+      </c>
+      <c r="B686" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C686" s="18"/>
+      <c r="D686" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E686" s="19">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
+      <c r="F686" s="19">
+        <v>1</v>
+      </c>
+      <c r="G686" s="19">
+        <v>1</v>
+      </c>
+      <c r="H686" s="19">
+        <f>0+0.5+0.3+0.7</f>
+        <v>1.5</v>
+      </c>
+      <c r="I686" s="19">
+        <f>0+0.3+0.2+0.2</f>
+        <v>0.7</v>
+      </c>
+      <c r="J686" s="19">
+        <f>0.7+0.5+0.5</f>
+        <v>1.7</v>
+      </c>
+      <c r="K686" s="19">
+        <f>0.7+0.7+0.6</f>
+        <v>2</v>
+      </c>
+      <c r="L686" s="19">
+        <f>0.4+0+0</f>
+        <v>0.4</v>
+      </c>
+      <c r="M686" s="19"/>
+      <c r="N686" s="18"/>
+      <c r="O686" s="18"/>
+    </row>
+    <row r="687" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A687" s="17">
+        <v>46028</v>
+      </c>
+      <c r="B687" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C687" s="22"/>
+      <c r="D687" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E687" s="23">
+        <v>2</v>
+      </c>
+      <c r="F687" s="23">
+        <v>2</v>
+      </c>
+      <c r="G687" s="23">
+        <v>2</v>
+      </c>
+      <c r="H687" s="23">
+        <v>4</v>
+      </c>
+      <c r="I687" s="23">
+        <v>4</v>
+      </c>
+      <c r="J687" s="23">
+        <v>3</v>
+      </c>
+      <c r="K687" s="23">
+        <v>3</v>
+      </c>
+      <c r="L687" s="23">
+        <v>3</v>
+      </c>
+      <c r="M687" s="23"/>
+      <c r="N687" s="22"/>
+      <c r="O687" s="22"/>
+    </row>
+    <row r="688" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A688" s="17">
+        <v>46028</v>
+      </c>
+      <c r="B688" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C688" s="26"/>
+      <c r="D688" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E688" s="27">
+        <f>IF(E687=0, "",
+  LOOKUP(E686/E687,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F688" s="27">
+        <f>IF(F687=0, "",
+  LOOKUP(F686/F687,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G688" s="27">
+        <f>IF(G687=0, "",
+  LOOKUP(G686/G687,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H688" s="27">
+        <f>IF(H687=0, "",
+  LOOKUP(H686/H687,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I688" s="27">
+        <f>IF(I687=0, "",
+  LOOKUP(I686/I687,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J688" s="27">
+        <f>IF(J687=0, "",
+  LOOKUP(J686/J687,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K688" s="27">
+        <f>IF(K687=0, "",
+  LOOKUP(K686/K687,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L688" s="27">
+        <f>IF(L687=0, "",
+  LOOKUP(L686/L687,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M688" s="27"/>
+      <c r="N688" s="27">
+        <f>AVERAGE(E688:L688)</f>
+        <v>4</v>
+      </c>
+      <c r="O688" s="34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="689" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="690" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A690" s="17">
+        <v>46029</v>
+      </c>
+      <c r="B690" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C690" s="18"/>
+      <c r="D690" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E690" s="19">
+        <v>2</v>
+      </c>
+      <c r="F690" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="G690" s="19">
+        <v>1</v>
+      </c>
+      <c r="H690" s="19">
+        <f>0.7+0.4+0.3+0.6</f>
+        <v>2</v>
+      </c>
+      <c r="I690" s="19">
+        <f>0.4+0.6+0.5+0.6</f>
+        <v>2.1</v>
+      </c>
+      <c r="J690" s="19">
+        <f>0.6+0.7+0.6</f>
+        <v>1.9</v>
+      </c>
+      <c r="K690" s="19">
+        <f>0.6+0.6+0.6</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="L690" s="19">
+        <f>0.5+0.5+0.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="M690" s="19"/>
+      <c r="N690" s="18"/>
+      <c r="O690" s="18"/>
+    </row>
+    <row r="691" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A691" s="17">
+        <v>46029</v>
+      </c>
+      <c r="B691" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C691" s="22"/>
+      <c r="D691" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E691" s="23">
+        <v>2</v>
+      </c>
+      <c r="F691" s="23">
+        <v>2</v>
+      </c>
+      <c r="G691" s="23">
+        <v>2</v>
+      </c>
+      <c r="H691" s="23">
+        <v>4</v>
+      </c>
+      <c r="I691" s="23">
+        <v>4</v>
+      </c>
+      <c r="J691" s="23">
+        <v>3</v>
+      </c>
+      <c r="K691" s="23">
+        <v>3</v>
+      </c>
+      <c r="L691" s="23">
+        <v>3</v>
+      </c>
+      <c r="M691" s="23"/>
+      <c r="N691" s="22"/>
+      <c r="O691" s="22"/>
+    </row>
+    <row r="692" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A692" s="17">
+        <v>46029</v>
+      </c>
+      <c r="B692" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C692" s="26"/>
+      <c r="D692" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E692" s="27">
+        <f>IF(E691=0, "",
+  LOOKUP(E690/E691,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="F692" s="27">
+        <f>IF(F691=0, "",
+  LOOKUP(F690/F691,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="G692" s="27">
+        <f>IF(G691=0, "",
+  LOOKUP(G690/G691,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="H692" s="27">
+        <f>IF(H691=0, "",
+  LOOKUP(H690/H691,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="I692" s="27">
+        <f>IF(I691=0, "",
+  LOOKUP(I690/I691,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="J692" s="27">
+        <f>IF(J691=0, "",
+  LOOKUP(J690/J691,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K692" s="27">
+        <f>IF(K691=0, "",
+  LOOKUP(K690/K691,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L692" s="27">
+        <f>IF(L691=0, "",
+  LOOKUP(L690/L691,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M692" s="27"/>
+      <c r="N692" s="27">
+        <f>AVERAGE(E692:L692)</f>
+        <v>6.375</v>
+      </c>
+      <c r="O692" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="693" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="694" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A694" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B694" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C694" s="18"/>
+      <c r="D694" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E694" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F694" s="19">
+        <v>1</v>
+      </c>
+      <c r="G694" s="19">
+        <v>0</v>
+      </c>
+      <c r="H694" s="19">
+        <f>0+0.2+0.5+0.7</f>
+        <v>1.4</v>
+      </c>
+      <c r="I694" s="19">
+        <f>0.2+0.5+0.5+0.3</f>
+        <v>1.5</v>
+      </c>
+      <c r="J694" s="19">
+        <f>0.5+0.5+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="K694" s="19">
+        <f>0+0.7+1</f>
+        <v>1.7</v>
+      </c>
+      <c r="L694" s="19">
+        <f>0.4+0.5+0.4</f>
+        <v>1.3</v>
+      </c>
+      <c r="M694" s="19"/>
+      <c r="N694" s="18"/>
+      <c r="O694" s="18"/>
+    </row>
+    <row r="695" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A695" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B695" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C695" s="22"/>
+      <c r="D695" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E695" s="23">
+        <v>2</v>
+      </c>
+      <c r="F695" s="23">
+        <v>2</v>
+      </c>
+      <c r="G695" s="23">
+        <v>2</v>
+      </c>
+      <c r="H695" s="23">
+        <v>4</v>
+      </c>
+      <c r="I695" s="23">
+        <v>4</v>
+      </c>
+      <c r="J695" s="23">
+        <v>3</v>
+      </c>
+      <c r="K695" s="23">
+        <v>3</v>
+      </c>
+      <c r="L695" s="23">
+        <v>3</v>
+      </c>
+      <c r="M695" s="23"/>
+      <c r="N695" s="22"/>
+      <c r="O695" s="22"/>
+    </row>
+    <row r="696" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A696" s="17">
+        <v>46021</v>
+      </c>
+      <c r="B696" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C696" s="26"/>
+      <c r="D696" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E696" s="27">
+        <f>IF(E695=0, "",
+  LOOKUP(E694/E695,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F696" s="27">
+        <f>IF(F695=0, "",
+  LOOKUP(F694/F695,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G696" s="27">
+        <f>IF(G695=0, "",
+  LOOKUP(G694/G695,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H696" s="27">
+        <f>IF(H695=0, "",
+  LOOKUP(H694/H695,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="I696" s="27">
+        <f>IF(I695=0, "",
+  LOOKUP(I694/I695,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J696" s="27">
+        <f>IF(J695=0, "",
+  LOOKUP(J694/J695,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K696" s="27">
+        <f>IF(K695=0, "",
+  LOOKUP(K694/K695,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L696" s="27">
+        <f>IF(L695=0, "",
+  LOOKUP(L694/L695,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M696" s="27"/>
+      <c r="N696" s="27">
+        <f>AVERAGE(E696:L696)</f>
+        <v>4.625</v>
+      </c>
+      <c r="O696" s="34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="697" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="698" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A698" s="17">
+        <v>46031</v>
+      </c>
+      <c r="B698" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C698" s="18"/>
+      <c r="D698" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E698" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F698" s="19">
+        <v>1</v>
+      </c>
+      <c r="G698" s="19">
+        <v>0</v>
+      </c>
+      <c r="H698" s="19">
+        <f>0+0.2+0.5+0.7</f>
+        <v>1.4</v>
+      </c>
+      <c r="I698" s="19">
+        <f>0.2+0.5+0.5+0.3</f>
+        <v>1.5</v>
+      </c>
+      <c r="J698" s="19">
+        <f>0.5+0.5+0.7</f>
+        <v>1.7</v>
+      </c>
+      <c r="K698" s="19">
+        <f>0+0.7+1</f>
+        <v>1.7</v>
+      </c>
+      <c r="L698" s="19">
+        <f>0.4+0.5+0.4</f>
+        <v>1.3</v>
+      </c>
+      <c r="M698" s="19"/>
+      <c r="N698" s="18"/>
+      <c r="O698" s="18"/>
+    </row>
+    <row r="699" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A699" s="17">
+        <v>46031</v>
+      </c>
+      <c r="B699" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C699" s="22"/>
+      <c r="D699" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E699" s="23">
+        <v>2</v>
+      </c>
+      <c r="F699" s="23">
+        <v>2</v>
+      </c>
+      <c r="G699" s="23">
+        <v>2</v>
+      </c>
+      <c r="H699" s="23">
+        <v>4</v>
+      </c>
+      <c r="I699" s="23">
+        <v>4</v>
+      </c>
+      <c r="J699" s="23">
+        <v>3</v>
+      </c>
+      <c r="K699" s="23">
+        <v>3</v>
+      </c>
+      <c r="L699" s="23">
+        <v>3</v>
+      </c>
+      <c r="M699" s="23"/>
+      <c r="N699" s="22"/>
+      <c r="O699" s="22"/>
+    </row>
+    <row r="700" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A700" s="17">
+        <v>46031</v>
+      </c>
+      <c r="B700" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C700" s="26"/>
+      <c r="D700" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E700" s="27">
+        <f>IF(E699=0, "",
+  LOOKUP(E698/E699,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F700" s="27">
+        <f>IF(F699=0, "",
+  LOOKUP(F698/F699,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G700" s="27">
+        <f>IF(G699=0, "",
+  LOOKUP(G698/G699,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H700" s="27">
+        <f>IF(H699=0, "",
+  LOOKUP(H698/H699,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="I700" s="27">
+        <f>IF(I699=0, "",
+  LOOKUP(I698/I699,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J700" s="27">
+        <f>IF(J699=0, "",
+  LOOKUP(J698/J699,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K700" s="27">
+        <f>IF(K699=0, "",
+  LOOKUP(K698/K699,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L700" s="27">
+        <f>IF(L699=0, "",
+  LOOKUP(L698/L699,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="M700" s="27"/>
+      <c r="N700" s="27">
+        <f>AVERAGE(E700:L700)</f>
+        <v>4.625</v>
+      </c>
+      <c r="O700" s="34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="701" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="702" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A702" s="17">
+        <v>46035</v>
+      </c>
+      <c r="B702" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C702" s="18"/>
+      <c r="D702" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E702" s="19">
+        <f>1+0</f>
+        <v>1</v>
+      </c>
+      <c r="F702" s="19">
+        <v>1</v>
+      </c>
+      <c r="G702" s="19">
+        <v>0</v>
+      </c>
+      <c r="H702" s="19">
+        <f>0.6+0+0.4+0.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="I702" s="19">
+        <f>0+0.4+0+0.3</f>
+        <v>0.7</v>
+      </c>
+      <c r="J702" s="19">
+        <f>0.4+0.4+0.4</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K702" s="19">
+        <f>0+0+0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="L702" s="19">
+        <f>0.4+0+0</f>
+        <v>0.4</v>
+      </c>
+      <c r="M702" s="19"/>
+      <c r="N702" s="18"/>
+      <c r="O702" s="18"/>
+    </row>
+    <row r="703" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A703" s="17">
+        <v>46035</v>
+      </c>
+      <c r="B703" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C703" s="22"/>
+      <c r="D703" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E703" s="23">
+        <v>2</v>
+      </c>
+      <c r="F703" s="23">
+        <v>2</v>
+      </c>
+      <c r="G703" s="23">
+        <v>2</v>
+      </c>
+      <c r="H703" s="23">
+        <v>4</v>
+      </c>
+      <c r="I703" s="23">
+        <v>4</v>
+      </c>
+      <c r="J703" s="23">
+        <v>3</v>
+      </c>
+      <c r="K703" s="23">
+        <v>3</v>
+      </c>
+      <c r="L703" s="23">
+        <v>3</v>
+      </c>
+      <c r="M703" s="23"/>
+      <c r="N703" s="22"/>
+      <c r="O703" s="22"/>
+    </row>
+    <row r="704" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A704" s="17">
+        <v>46035</v>
+      </c>
+      <c r="B704" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C704" s="26"/>
+      <c r="D704" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E704" s="27">
+        <f>IF(E703=0, "",
+  LOOKUP(E702/E703,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="F704" s="27">
+        <f>IF(F703=0, "",
+  LOOKUP(F702/F703,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="G704" s="27">
+        <f>IF(G703=0, "",
+  LOOKUP(G702/G703,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="H704" s="27">
+        <f>IF(H703=0, "",
+  LOOKUP(H702/H703,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="I704" s="27">
+        <f>IF(I703=0, "",
+  LOOKUP(I702/I703,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="J704" s="27">
+        <f>IF(J703=0, "",
+  LOOKUP(J702/J703,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="K704" s="27">
+        <f>IF(K703=0, "",
+  LOOKUP(K702/K703,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="L704" s="27">
+        <f>IF(L703=0, "",
+  LOOKUP(L702/L703,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M704" s="27"/>
+      <c r="N704" s="27">
+        <f>AVERAGE(E704:L704)</f>
+        <v>2.625</v>
+      </c>
+      <c r="O704" s="34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="705" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="706" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A706" s="17">
+        <v>46035</v>
+      </c>
+      <c r="B706" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C706" s="18"/>
+      <c r="D706" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E706" s="19">
+        <v>2</v>
+      </c>
+      <c r="F706" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="G706" s="19">
+        <v>2</v>
+      </c>
+      <c r="H706" s="19">
+        <f>0.6+0.7+0.7+0.2</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="I706" s="19">
+        <f>0.5+0.6+0.2+0.7</f>
+        <v>2</v>
+      </c>
+      <c r="J706" s="19">
+        <f>0.7+0.6+0.4</f>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="K706" s="19">
+        <f>0.5+0.6+0.5</f>
+        <v>1.6</v>
+      </c>
+      <c r="L706" s="19">
+        <f>0.6+0.7+0.5</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="M706" s="19"/>
+      <c r="N706" s="18"/>
+      <c r="O706" s="18"/>
+    </row>
+    <row r="707" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A707" s="17">
+        <v>46035</v>
+      </c>
+      <c r="B707" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C707" s="22"/>
+      <c r="D707" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E707" s="23">
+        <v>2</v>
+      </c>
+      <c r="F707" s="23">
+        <v>2</v>
+      </c>
+      <c r="G707" s="23">
+        <v>2</v>
+      </c>
+      <c r="H707" s="23">
+        <v>4</v>
+      </c>
+      <c r="I707" s="23">
+        <v>4</v>
+      </c>
+      <c r="J707" s="23">
+        <v>3</v>
+      </c>
+      <c r="K707" s="23">
+        <v>3</v>
+      </c>
+      <c r="L707" s="23">
+        <v>3</v>
+      </c>
+      <c r="M707" s="23"/>
+      <c r="N707" s="22"/>
+      <c r="O707" s="22"/>
+    </row>
+    <row r="708" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A708" s="17">
+        <v>46035</v>
+      </c>
+      <c r="B708" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C708" s="26"/>
+      <c r="D708" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E708" s="27">
+        <f>IF(E707=0, "",
+  LOOKUP(E706/E707,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="F708" s="27">
+        <f>IF(F707=0, "",
+  LOOKUP(F706/F707,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="G708" s="27">
+        <f>IF(G707=0, "",
+  LOOKUP(G706/G707,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>8</v>
+      </c>
+      <c r="H708" s="27">
+        <f>IF(H707=0, "",
+  LOOKUP(H706/H707,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="I708" s="27">
+        <f>IF(I707=0, "",
+  LOOKUP(I706/I707,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>5</v>
+      </c>
+      <c r="J708" s="27">
+        <f>IF(J707=0, "",
+  LOOKUP(J706/J707,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="K708" s="27">
+        <f>IF(K707=0, "",
+  LOOKUP(K706/K707,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="L708" s="27">
+        <f>IF(L707=0, "",
+  LOOKUP(L706/L707,
+    {0,0.2000001,0.3500001,0.5000001,0.7000001,0.8,0.8000001},
+    {1,2,5,7,7,7.5,8}
+  )
+)</f>
+        <v>7</v>
+      </c>
+      <c r="M708" s="27"/>
+      <c r="N708" s="27">
+        <f>AVERAGE(E708:L708)</f>
+        <v>7</v>
+      </c>
+      <c r="O708" s="34" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
